--- a/data/Articoli.xlsx
+++ b/data/Articoli.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Estrazione_DB_CAD\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A11B7ED5-B5D2-4591-B2F5-F290966250D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D0943C9-7A16-48C7-9C5F-06233038DC38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6670C9F1-34F6-47C3-9A3D-147FE61E4AEA}"/>
   </bookViews>
@@ -2309,885 +2309,6 @@
     <t>Parete RP singolo vetro 66 decentrato - Montante WCA incassato in cartongesso 102</t>
   </si>
   <si>
-    <t>images\5A0HAPUPA.png</t>
-  </si>
-  <si>
-    <t>images\5A0HIPUPA.png</t>
-  </si>
-  <si>
-    <t>images\5A0HIPUPB.png</t>
-  </si>
-  <si>
-    <t>images\5A0PUPA.png</t>
-  </si>
-  <si>
-    <t>images\5A0PUPB.png</t>
-  </si>
-  <si>
-    <t>images\5A0PUPC.png</t>
-  </si>
-  <si>
-    <t>images\5A0PUPD.png</t>
-  </si>
-  <si>
-    <t>images\5A0PUPE.png</t>
-  </si>
-  <si>
-    <t>images\5A0PUPF.png</t>
-  </si>
-  <si>
-    <t>images\5A0PUPG.png</t>
-  </si>
-  <si>
-    <t>images\5A0PUPDA.png</t>
-  </si>
-  <si>
-    <t>images\5A0TRA0.png</t>
-  </si>
-  <si>
-    <t>images\5A0TRB0.png</t>
-  </si>
-  <si>
-    <t>images\5A0TRC0.png</t>
-  </si>
-  <si>
-    <t>images\5D0HAPHCA.png</t>
-  </si>
-  <si>
-    <t>images\5D0HAPHFA.png</t>
-  </si>
-  <si>
-    <t>images\5D0HAPHFB.png</t>
-  </si>
-  <si>
-    <t>images\5D0PHCA.png</t>
-  </si>
-  <si>
-    <t>images\5D0PHEA.png</t>
-  </si>
-  <si>
-    <t>images\5D0PHEDA.png</t>
-  </si>
-  <si>
-    <t>images\5D0PHFA.png</t>
-  </si>
-  <si>
-    <t>images\5D0PHFDA.png</t>
-  </si>
-  <si>
-    <t>images\5D0PHGA.png</t>
-  </si>
-  <si>
-    <t>images\5D0PHSA.png</t>
-  </si>
-  <si>
-    <t>images\5D0TRA0.png</t>
-  </si>
-  <si>
-    <t>images\5D0TRB0.png</t>
-  </si>
-  <si>
-    <t>images\5D0TRC0.png</t>
-  </si>
-  <si>
-    <t>images\5D0TRD0.png</t>
-  </si>
-  <si>
-    <t>images\5DCHAA.png</t>
-  </si>
-  <si>
-    <t>images\5DCHBA.png</t>
-  </si>
-  <si>
-    <t>images\5DCVM1A.png</t>
-  </si>
-  <si>
-    <t>images\5DCVM1B.png</t>
-  </si>
-  <si>
-    <t>images\5DCVM2A.png</t>
-  </si>
-  <si>
-    <t>images\5DCVMRA.png</t>
-  </si>
-  <si>
-    <t>images\5DCVPHFBA.png</t>
-  </si>
-  <si>
-    <t>images\5DCVPHFCA.png</t>
-  </si>
-  <si>
-    <t>images\5R0HAPJAA.png</t>
-  </si>
-  <si>
-    <t>images\5R0PJBA0.png</t>
-  </si>
-  <si>
-    <t>images\5R0PJBAL.png</t>
-  </si>
-  <si>
-    <t>images\5R0PJBAS.png</t>
-  </si>
-  <si>
-    <t>images\5R0PJBB0.png</t>
-  </si>
-  <si>
-    <t>images\5R0PJBCX.png</t>
-  </si>
-  <si>
-    <t>images\5R0PJBD0.png</t>
-  </si>
-  <si>
-    <t>images\5R0PJBEM.png</t>
-  </si>
-  <si>
-    <t>images\5R0PJBDA.png</t>
-  </si>
-  <si>
-    <t>images\5R0PJBDB.png</t>
-  </si>
-  <si>
-    <t>images\5R0PJBDC.png</t>
-  </si>
-  <si>
-    <t>images\5R0PJFA0.png</t>
-  </si>
-  <si>
-    <t>images\5R0PJFA1.png</t>
-  </si>
-  <si>
-    <t>images\5R0PJFB1.png</t>
-  </si>
-  <si>
-    <t>images\5R0PJFC0.png</t>
-  </si>
-  <si>
-    <t>images\5R0PJFDA.png</t>
-  </si>
-  <si>
-    <t>images\5R0PJFDB.png</t>
-  </si>
-  <si>
-    <t>images\5R0PJOA.png</t>
-  </si>
-  <si>
-    <t>images\5R0PJOB.png</t>
-  </si>
-  <si>
-    <t>images\5R0PJSAL.png</t>
-  </si>
-  <si>
-    <t>images\5R0PJSAS.png</t>
-  </si>
-  <si>
-    <t>images\5R0PJSDA.png</t>
-  </si>
-  <si>
-    <t>images\5R0PJSDB.png</t>
-  </si>
-  <si>
-    <t>images\5R0SAA.png</t>
-  </si>
-  <si>
-    <t>images\5R0TRA0.png</t>
-  </si>
-  <si>
-    <t>images\5R0VBC.png</t>
-  </si>
-  <si>
-    <t>images\5R0VMQA.png</t>
-  </si>
-  <si>
-    <t>images\5R0VRP.png</t>
-  </si>
-  <si>
-    <t>images\5R0VRPQ.png</t>
-  </si>
-  <si>
-    <t>images\5R0VTPA.png</t>
-  </si>
-  <si>
-    <t>images\5R0VTPB.png</t>
-  </si>
-  <si>
-    <t>images\5SSHAPA.png</t>
-  </si>
-  <si>
-    <t>images\5SSPJAB.png</t>
-  </si>
-  <si>
-    <t>images\5SSPJAF.png</t>
-  </si>
-  <si>
-    <t>images\5SSPJAG.png</t>
-  </si>
-  <si>
-    <t>images\5SSTRA0.png</t>
-  </si>
-  <si>
-    <t>images\5SSVMRA.png</t>
-  </si>
-  <si>
-    <t>images\5AAHAA.png</t>
-  </si>
-  <si>
-    <t>images\5AAHAPJSA.png</t>
-  </si>
-  <si>
-    <t>images\5AAHBA.png</t>
-  </si>
-  <si>
-    <t>images\5AAHBB.png</t>
-  </si>
-  <si>
-    <t>images\5AAVM1A.png</t>
-  </si>
-  <si>
-    <t>images\5AAVM1B.png</t>
-  </si>
-  <si>
-    <t>images\5AAVMRA.png</t>
-  </si>
-  <si>
-    <t>images\5AAVMRB.png</t>
-  </si>
-  <si>
-    <t>images\5AAVPJSBA.png</t>
-  </si>
-  <si>
-    <t>images\5AAVPJSBB.png</t>
-  </si>
-  <si>
-    <t>images\5AAVPJSPA.png</t>
-  </si>
-  <si>
-    <t>images\5AAVPUPBA.png</t>
-  </si>
-  <si>
-    <t>images\5AAVPUPBB.png</t>
-  </si>
-  <si>
-    <t>images\5AAVPUPBC.png</t>
-  </si>
-  <si>
-    <t>images\5AAVPUPBD.png</t>
-  </si>
-  <si>
-    <t>images\5AAVPUPCA.png</t>
-  </si>
-  <si>
-    <t>images\5AAVPUPCB.png</t>
-  </si>
-  <si>
-    <t>images\5AAVPUPCC.png</t>
-  </si>
-  <si>
-    <t>images\5AAVPUPCD.png</t>
-  </si>
-  <si>
-    <t>images\5ABHAA.png</t>
-  </si>
-  <si>
-    <t>images\5ABHBA.png</t>
-  </si>
-  <si>
-    <t>images\5ABVM1A.png</t>
-  </si>
-  <si>
-    <t>images\5ABVM1B.png</t>
-  </si>
-  <si>
-    <t>images\5ABVMRA.png</t>
-  </si>
-  <si>
-    <t>images\5ABVMRB.png</t>
-  </si>
-  <si>
-    <t>images\5ABVPUPBA.png</t>
-  </si>
-  <si>
-    <t>images\5ABVPUPBB.png</t>
-  </si>
-  <si>
-    <t>images\5ABVPUPCA.png</t>
-  </si>
-  <si>
-    <t>images\5ABVPUPCB.png</t>
-  </si>
-  <si>
-    <t>images\5ACHAA.png</t>
-  </si>
-  <si>
-    <t>images\5ACHBA.png</t>
-  </si>
-  <si>
-    <t>images\5ACVM1A.png</t>
-  </si>
-  <si>
-    <t>images\5ACVM3CA.png</t>
-  </si>
-  <si>
-    <t>images\5ACVMRA.png</t>
-  </si>
-  <si>
-    <t>images\5ACVPJSPA.png</t>
-  </si>
-  <si>
-    <t>images\5ACVPUPBA.png</t>
-  </si>
-  <si>
-    <t>images\5ACVPUPBB.png</t>
-  </si>
-  <si>
-    <t>images\5ACVPUPCA.png</t>
-  </si>
-  <si>
-    <t>images\5ACVPUPCB.png</t>
-  </si>
-  <si>
-    <t>images\5DAHAA.png</t>
-  </si>
-  <si>
-    <t>images\5DAHAB.png</t>
-  </si>
-  <si>
-    <t>images\5DAHAC.png</t>
-  </si>
-  <si>
-    <t>images\5DAHAD.png</t>
-  </si>
-  <si>
-    <t>images\5DAHAPHSA.png</t>
-  </si>
-  <si>
-    <t>images\5DAHBA.png</t>
-  </si>
-  <si>
-    <t>images\5DAHBB.png</t>
-  </si>
-  <si>
-    <t>images\5DAHBC.png</t>
-  </si>
-  <si>
-    <t>images\5DAHIA.png</t>
-  </si>
-  <si>
-    <t>images\5DAVM1A.png</t>
-  </si>
-  <si>
-    <t>images\5DAVM1X.png</t>
-  </si>
-  <si>
-    <t>images\5DAVM3A.png</t>
-  </si>
-  <si>
-    <t>images\5DAVM3B.png</t>
-  </si>
-  <si>
-    <t>images\5DAVM3C.png</t>
-  </si>
-  <si>
-    <t>images\5DAVM3CA.png</t>
-  </si>
-  <si>
-    <t>images\5DAVMRA.png</t>
-  </si>
-  <si>
-    <t>images\5DAVMRB.png</t>
-  </si>
-  <si>
-    <t>images\5DAVMRC.png</t>
-  </si>
-  <si>
-    <t>images\5DAVMRD.png</t>
-  </si>
-  <si>
-    <t>images\5DAVPHCBA.png</t>
-  </si>
-  <si>
-    <t>images\5DAVPHCCA.png</t>
-  </si>
-  <si>
-    <t>images\5DAVPHFBA.png</t>
-  </si>
-  <si>
-    <t>images\5DAVPHFBB.png</t>
-  </si>
-  <si>
-    <t>images\5DAVPHFCA.png</t>
-  </si>
-  <si>
-    <t>images\5DAVPHFCB.png</t>
-  </si>
-  <si>
-    <t>images\5DAVPHSBA.png</t>
-  </si>
-  <si>
-    <t>images\5DAVPHSPA.png</t>
-  </si>
-  <si>
-    <t>images\5DBHAA.png</t>
-  </si>
-  <si>
-    <t>images\5DBHBA.png</t>
-  </si>
-  <si>
-    <t>images\5DBVM3A.png</t>
-  </si>
-  <si>
-    <t>images\5DBVMRA.png</t>
-  </si>
-  <si>
-    <t>images\5DBVPHFBA.png</t>
-  </si>
-  <si>
-    <t>images\5DBVPHFCA.png</t>
-  </si>
-  <si>
-    <t>images\5DBVPHFX.png</t>
-  </si>
-  <si>
-    <t>images\5GJLDAG1A.png</t>
-  </si>
-  <si>
-    <t>images\5GJLDAG2A.png</t>
-  </si>
-  <si>
-    <t>images\5GJLDAG2B.png</t>
-  </si>
-  <si>
-    <t>images\5GJLDAG2C.png</t>
-  </si>
-  <si>
-    <t>images\5GJLDAG3A.png</t>
-  </si>
-  <si>
-    <t>images\5GJLDBG1A.png</t>
-  </si>
-  <si>
-    <t>images\5GJLDBG1B.png</t>
-  </si>
-  <si>
-    <t>images\5GJLDBG2A.png</t>
-  </si>
-  <si>
-    <t>images\5GJLDBG2B.png</t>
-  </si>
-  <si>
-    <t>images\5GJLDBG3A.png</t>
-  </si>
-  <si>
-    <t>images\5GJLDBG3B.png</t>
-  </si>
-  <si>
-    <t>images\5GJLSAG1A.png</t>
-  </si>
-  <si>
-    <t>images\5GJLSAG2A.png</t>
-  </si>
-  <si>
-    <t>images\5GJLSAG3A.png</t>
-  </si>
-  <si>
-    <t>images\5GJLSBG1A.png</t>
-  </si>
-  <si>
-    <t>images\5GJLSBG2A.png</t>
-  </si>
-  <si>
-    <t>images\5GJLSBG3A.png</t>
-  </si>
-  <si>
-    <t>images\5GJLSBG3B.png</t>
-  </si>
-  <si>
-    <t>images\5GJLSCG1A.png</t>
-  </si>
-  <si>
-    <t>images\5GJLSCG2A.png</t>
-  </si>
-  <si>
-    <t>images\5GJLSCG2B.png</t>
-  </si>
-  <si>
-    <t>images\5GJLSCG2C.png</t>
-  </si>
-  <si>
-    <t>images\5GJLSCG3A.png</t>
-  </si>
-  <si>
-    <t>images\5GJLSCG3B.png</t>
-  </si>
-  <si>
-    <t>images\5GJLSCG3C.png</t>
-  </si>
-  <si>
-    <t>images\5RAHAA.png</t>
-  </si>
-  <si>
-    <t>images\5RAHAB.png</t>
-  </si>
-  <si>
-    <t>images\5RAHAPJBA.png</t>
-  </si>
-  <si>
-    <t>images\5RAHAPJBB.png</t>
-  </si>
-  <si>
-    <t>images\5RAHAPJFA.png</t>
-  </si>
-  <si>
-    <t>images\5RAHAPJFB.png</t>
-  </si>
-  <si>
-    <t>images\5RAHAPJSA.png</t>
-  </si>
-  <si>
-    <t>images\5RAHAPJSB.png</t>
-  </si>
-  <si>
-    <t>images\5RAHBA.png</t>
-  </si>
-  <si>
-    <t>images\5RAHBB.png</t>
-  </si>
-  <si>
-    <t>images\5RAHIA.png</t>
-  </si>
-  <si>
-    <t>images\5RASWC1.png</t>
-  </si>
-  <si>
-    <t>images\5RASWC2.png</t>
-  </si>
-  <si>
-    <t>images\5RATRA0.png</t>
-  </si>
-  <si>
-    <t>images\5RATRB0.png</t>
-  </si>
-  <si>
-    <t>images\5RAVM1A.png</t>
-  </si>
-  <si>
-    <t>images\5RAVM2A.png</t>
-  </si>
-  <si>
-    <t>images\5RAVM3A.png</t>
-  </si>
-  <si>
-    <t>images\5RAVM3CA.png</t>
-  </si>
-  <si>
-    <t>images\5RAVMQA.png</t>
-  </si>
-  <si>
-    <t>images\5RAVMRA.png</t>
-  </si>
-  <si>
-    <t>images\5RAVPJABA.png</t>
-  </si>
-  <si>
-    <t>images\5RAVPJAPA.png</t>
-  </si>
-  <si>
-    <t>images\5RAVPJBBA.png</t>
-  </si>
-  <si>
-    <t>images\5RAVPJBCA.png</t>
-  </si>
-  <si>
-    <t>images\5RAVPJFBA.png</t>
-  </si>
-  <si>
-    <t>images\5RAVPJFCA.png</t>
-  </si>
-  <si>
-    <t>images\5RAVPJSBA.png</t>
-  </si>
-  <si>
-    <t>images\5RAVPJSPA.png</t>
-  </si>
-  <si>
-    <t>images\5RAVTPKA.png</t>
-  </si>
-  <si>
-    <t>images\5RAVTPKB.png</t>
-  </si>
-  <si>
-    <t>images\5RAVTPKC.png</t>
-  </si>
-  <si>
-    <t>images\5RAVWCA.png</t>
-  </si>
-  <si>
-    <t>images\5RAVWCB.png</t>
-  </si>
-  <si>
-    <t>images\5RAVWCC.png</t>
-  </si>
-  <si>
-    <t>images\5RAVWCD.png</t>
-  </si>
-  <si>
-    <t>images\5RBHAA.png</t>
-  </si>
-  <si>
-    <t>images\5RBHAB.png</t>
-  </si>
-  <si>
-    <t>images\5RBHAC.png</t>
-  </si>
-  <si>
-    <t>images\5RBHAD.png</t>
-  </si>
-  <si>
-    <t>images\5RBHAE.png</t>
-  </si>
-  <si>
-    <t>images\5RBHAPJBA.png</t>
-  </si>
-  <si>
-    <t>images\5RBHAPJBB.png</t>
-  </si>
-  <si>
-    <t>images\5RBHAPJFA.png</t>
-  </si>
-  <si>
-    <t>images\5RBHAPJFB.png</t>
-  </si>
-  <si>
-    <t>images\5RBHAPJFC.png</t>
-  </si>
-  <si>
-    <t>images\5RBHAPJOA.png</t>
-  </si>
-  <si>
-    <t>images\5RBHAPJSA.png</t>
-  </si>
-  <si>
-    <t>images\5RBHAPJSB.png</t>
-  </si>
-  <si>
-    <t>images\5RBHAPJSC.png</t>
-  </si>
-  <si>
-    <t>images\5RBHBB.png</t>
-  </si>
-  <si>
-    <t>images\5RBHIA.png</t>
-  </si>
-  <si>
-    <t>images\5RBHIB.png</t>
-  </si>
-  <si>
-    <t>images\5RBHIC.png</t>
-  </si>
-  <si>
-    <t>images\5RBTRA0.png</t>
-  </si>
-  <si>
-    <t>images\5RBTRB0.png</t>
-  </si>
-  <si>
-    <t>images\5RBTRC0.png</t>
-  </si>
-  <si>
-    <t>images\5RBVM1A.png</t>
-  </si>
-  <si>
-    <t>images\5RBVM1B.png</t>
-  </si>
-  <si>
-    <t>images\5RBVM1C.png</t>
-  </si>
-  <si>
-    <t>images\5RBVM2A.png</t>
-  </si>
-  <si>
-    <t>images\5RBVM3A.png</t>
-  </si>
-  <si>
-    <t>images\5RBVM3CA.png</t>
-  </si>
-  <si>
-    <t>images\5RBVMRA.png</t>
-  </si>
-  <si>
-    <t>images\5RBVMRB.png</t>
-  </si>
-  <si>
-    <t>images\5RBVPJABA.png</t>
-  </si>
-  <si>
-    <t>images\5RBVPJAPA.png</t>
-  </si>
-  <si>
-    <t>images\5RBVPJBBA.png</t>
-  </si>
-  <si>
-    <t>images\5RBVPJBCA.png</t>
-  </si>
-  <si>
-    <t>images\5RBVPJFBA.png</t>
-  </si>
-  <si>
-    <t>images\5RBVPJFCA.png</t>
-  </si>
-  <si>
-    <t>images\5RBVPJOBA.png</t>
-  </si>
-  <si>
-    <t>images\5RBVPJOPA.png</t>
-  </si>
-  <si>
-    <t>images\5RBVPJSBA.png</t>
-  </si>
-  <si>
-    <t>images\5RBVPJSPA.png</t>
-  </si>
-  <si>
-    <t>images\5RBVTPKA.png</t>
-  </si>
-  <si>
-    <t>images\5RBVTPKB.png</t>
-  </si>
-  <si>
-    <t>images\5RBVTPKC.png</t>
-  </si>
-  <si>
-    <t>images\5RBVWCA.png</t>
-  </si>
-  <si>
-    <t>images\5RBVWCB.png</t>
-  </si>
-  <si>
-    <t>images\5RCHAA.png</t>
-  </si>
-  <si>
-    <t>images\5RCHAB.png</t>
-  </si>
-  <si>
-    <t>images\5RCHAPJBA.png</t>
-  </si>
-  <si>
-    <t>images\5RCHAPJBB.png</t>
-  </si>
-  <si>
-    <t>images\5RCHAPJFA.png</t>
-  </si>
-  <si>
-    <t>images\5RCHAPJFB.png</t>
-  </si>
-  <si>
-    <t>images\5RCHAPJSA.png</t>
-  </si>
-  <si>
-    <t>images\5RCHAPJSB.png</t>
-  </si>
-  <si>
-    <t>images\5RCHBA.png</t>
-  </si>
-  <si>
-    <t>images\5RCHBB.png</t>
-  </si>
-  <si>
-    <t>images\5RCHIA.png</t>
-  </si>
-  <si>
-    <t>images\5RCHIB.png</t>
-  </si>
-  <si>
-    <t>images\5RCTRA0.png</t>
-  </si>
-  <si>
-    <t>images\5RCTRB0.png</t>
-  </si>
-  <si>
-    <t>images\5RCVM1A.png</t>
-  </si>
-  <si>
-    <t>images\5RCVM2A.png</t>
-  </si>
-  <si>
-    <t>images\5RCVM3A.png</t>
-  </si>
-  <si>
-    <t>images\5RCVM3B.png</t>
-  </si>
-  <si>
-    <t>images\5RCVM3C.png</t>
-  </si>
-  <si>
-    <t>images\5RCVMRA.png</t>
-  </si>
-  <si>
-    <t>images\5RCVPJBBA.png</t>
-  </si>
-  <si>
-    <t>images\5RCVPJBCA.png</t>
-  </si>
-  <si>
-    <t>images\5RCVPJFBA.png</t>
-  </si>
-  <si>
-    <t>images\5RCVPJFCA.png</t>
-  </si>
-  <si>
-    <t>images\5RCVPJSBA.png</t>
-  </si>
-  <si>
-    <t>images\5RCVPJSPA.png</t>
-  </si>
-  <si>
-    <t>images\5RCVPCR0.png</t>
-  </si>
-  <si>
-    <t>images\5RCVTPKA.png</t>
-  </si>
-  <si>
-    <t>images\5RCVTPKB.png</t>
-  </si>
-  <si>
-    <t>images\5RCVTPKC.png</t>
-  </si>
-  <si>
-    <t>images\5RDHAA.png</t>
-  </si>
-  <si>
-    <t>images\5RDHAPJOA.png</t>
-  </si>
-  <si>
-    <t>images\5RDHBA.png</t>
-  </si>
-  <si>
-    <t>images\5RDHBPJO.png</t>
-  </si>
-  <si>
-    <t>images\5RDTRA0.png</t>
-  </si>
-  <si>
-    <t>images\5RDVM1A.png</t>
-  </si>
-  <si>
-    <t>images\5RDVMRA.png</t>
-  </si>
-  <si>
-    <t>images\5RDVPJOBA.png</t>
-  </si>
-  <si>
-    <t>images\5RDVPJOPA.png</t>
-  </si>
-  <si>
-    <t>images\5RDVWCA.png</t>
-  </si>
-  <si>
-    <t>images\5REVM3CA.png</t>
-  </si>
-  <si>
-    <t>images\5REVWCA.png</t>
-  </si>
-  <si>
     <t>MACRO_SISTEMA</t>
   </si>
   <si>
@@ -3314,19 +2435,898 @@
     <t>Pan.vetrato mq 5+5   non acu</t>
   </si>
   <si>
-    <t>images\5R0PJSA0.png</t>
-  </si>
-  <si>
-    <t>images\5RBHAPJOE.png</t>
-  </si>
-  <si>
-    <t>images\5RBHBPJOR.png</t>
-  </si>
-  <si>
-    <t>images\RJL66.png</t>
-  </si>
-  <si>
-    <t>images\RJL55.png</t>
+    <t>images/5A0HAPUPA.png</t>
+  </si>
+  <si>
+    <t>images/5A0HIPUPA.png</t>
+  </si>
+  <si>
+    <t>images/5A0HIPUPB.png</t>
+  </si>
+  <si>
+    <t>images/5A0PUPA.png</t>
+  </si>
+  <si>
+    <t>images/5A0PUPB.png</t>
+  </si>
+  <si>
+    <t>images/5A0PUPC.png</t>
+  </si>
+  <si>
+    <t>images/5A0PUPD.png</t>
+  </si>
+  <si>
+    <t>images/5A0PUPE.png</t>
+  </si>
+  <si>
+    <t>images/5A0PUPF.png</t>
+  </si>
+  <si>
+    <t>images/5A0PUPG.png</t>
+  </si>
+  <si>
+    <t>images/5A0PUPDA.png</t>
+  </si>
+  <si>
+    <t>images/5A0TRA0.png</t>
+  </si>
+  <si>
+    <t>images/5A0TRB0.png</t>
+  </si>
+  <si>
+    <t>images/5A0TRC0.png</t>
+  </si>
+  <si>
+    <t>images/5AAHAA.png</t>
+  </si>
+  <si>
+    <t>images/5AAHAPJSA.png</t>
+  </si>
+  <si>
+    <t>images/5AAHBA.png</t>
+  </si>
+  <si>
+    <t>images/5AAHBB.png</t>
+  </si>
+  <si>
+    <t>images/5AAVM1A.png</t>
+  </si>
+  <si>
+    <t>images/5AAVM1B.png</t>
+  </si>
+  <si>
+    <t>images/5AAVMRA.png</t>
+  </si>
+  <si>
+    <t>images/5AAVMRB.png</t>
+  </si>
+  <si>
+    <t>images/5AAVPJSBA.png</t>
+  </si>
+  <si>
+    <t>images/5AAVPJSBB.png</t>
+  </si>
+  <si>
+    <t>images/5AAVPJSPA.png</t>
+  </si>
+  <si>
+    <t>images/5AAVPUPBA.png</t>
+  </si>
+  <si>
+    <t>images/5AAVPUPBB.png</t>
+  </si>
+  <si>
+    <t>images/5AAVPUPBC.png</t>
+  </si>
+  <si>
+    <t>images/5AAVPUPBD.png</t>
+  </si>
+  <si>
+    <t>images/5AAVPUPCA.png</t>
+  </si>
+  <si>
+    <t>images/5AAVPUPCB.png</t>
+  </si>
+  <si>
+    <t>images/5AAVPUPCC.png</t>
+  </si>
+  <si>
+    <t>images/5AAVPUPCD.png</t>
+  </si>
+  <si>
+    <t>images/5ABHAA.png</t>
+  </si>
+  <si>
+    <t>images/5ABHBA.png</t>
+  </si>
+  <si>
+    <t>images/5ABVM1A.png</t>
+  </si>
+  <si>
+    <t>images/5ABVM1B.png</t>
+  </si>
+  <si>
+    <t>images/5ABVMRA.png</t>
+  </si>
+  <si>
+    <t>images/5ABVMRB.png</t>
+  </si>
+  <si>
+    <t>images/5ABVPUPBA.png</t>
+  </si>
+  <si>
+    <t>images/5ABVPUPBB.png</t>
+  </si>
+  <si>
+    <t>images/5ABVPUPCA.png</t>
+  </si>
+  <si>
+    <t>images/5ABVPUPCB.png</t>
+  </si>
+  <si>
+    <t>images/5ACHAA.png</t>
+  </si>
+  <si>
+    <t>images/5ACHBA.png</t>
+  </si>
+  <si>
+    <t>images/5ACVM1A.png</t>
+  </si>
+  <si>
+    <t>images/5ACVM3CA.png</t>
+  </si>
+  <si>
+    <t>images/5ACVMRA.png</t>
+  </si>
+  <si>
+    <t>images/5ACVPJSPA.png</t>
+  </si>
+  <si>
+    <t>images/5ACVPUPBA.png</t>
+  </si>
+  <si>
+    <t>images/5ACVPUPBB.png</t>
+  </si>
+  <si>
+    <t>images/5ACVPUPCA.png</t>
+  </si>
+  <si>
+    <t>images/5ACVPUPCB.png</t>
+  </si>
+  <si>
+    <t>images/5GJLDAG1A.png</t>
+  </si>
+  <si>
+    <t>images/5GJLDAG2A.png</t>
+  </si>
+  <si>
+    <t>images/5GJLDAG2B.png</t>
+  </si>
+  <si>
+    <t>images/5GJLDAG2C.png</t>
+  </si>
+  <si>
+    <t>images/5GJLDAG3A.png</t>
+  </si>
+  <si>
+    <t>images/5GJLDBG1A.png</t>
+  </si>
+  <si>
+    <t>images/5GJLDBG1B.png</t>
+  </si>
+  <si>
+    <t>images/5GJLDBG2A.png</t>
+  </si>
+  <si>
+    <t>images/5GJLDBG2B.png</t>
+  </si>
+  <si>
+    <t>images/5GJLDBG3A.png</t>
+  </si>
+  <si>
+    <t>images/5GJLDBG3B.png</t>
+  </si>
+  <si>
+    <t>images/5GJLSAG1A.png</t>
+  </si>
+  <si>
+    <t>images/5GJLSAG2A.png</t>
+  </si>
+  <si>
+    <t>images/5GJLSAG3A.png</t>
+  </si>
+  <si>
+    <t>images/5GJLSBG1A.png</t>
+  </si>
+  <si>
+    <t>images/5GJLSBG2A.png</t>
+  </si>
+  <si>
+    <t>images/5GJLSBG3A.png</t>
+  </si>
+  <si>
+    <t>images/5GJLSBG3B.png</t>
+  </si>
+  <si>
+    <t>images/5GJLSCG1A.png</t>
+  </si>
+  <si>
+    <t>images/5GJLSCG2A.png</t>
+  </si>
+  <si>
+    <t>images/5GJLSCG2B.png</t>
+  </si>
+  <si>
+    <t>images/5GJLSCG2C.png</t>
+  </si>
+  <si>
+    <t>images/5GJLSCG3A.png</t>
+  </si>
+  <si>
+    <t>images/5GJLSCG3B.png</t>
+  </si>
+  <si>
+    <t>images/5GJLSCG3C.png</t>
+  </si>
+  <si>
+    <t>images/5D0HAPHCA.png</t>
+  </si>
+  <si>
+    <t>images/5D0HAPHFA.png</t>
+  </si>
+  <si>
+    <t>images/5D0HAPHFB.png</t>
+  </si>
+  <si>
+    <t>images/5D0PHCA.png</t>
+  </si>
+  <si>
+    <t>images/5D0PHEA.png</t>
+  </si>
+  <si>
+    <t>images/5D0PHEDA.png</t>
+  </si>
+  <si>
+    <t>images/5D0PHFA.png</t>
+  </si>
+  <si>
+    <t>images/5D0PHFDA.png</t>
+  </si>
+  <si>
+    <t>images/5D0PHGA.png</t>
+  </si>
+  <si>
+    <t>images/5D0PHSA.png</t>
+  </si>
+  <si>
+    <t>images/5D0TRA0.png</t>
+  </si>
+  <si>
+    <t>images/5D0TRB0.png</t>
+  </si>
+  <si>
+    <t>images/5D0TRC0.png</t>
+  </si>
+  <si>
+    <t>images/5D0TRD0.png</t>
+  </si>
+  <si>
+    <t>images/5DCHAA.png</t>
+  </si>
+  <si>
+    <t>images/5DCHBA.png</t>
+  </si>
+  <si>
+    <t>images/5DCVM1A.png</t>
+  </si>
+  <si>
+    <t>images/5DCVM1B.png</t>
+  </si>
+  <si>
+    <t>images/5DCVM2A.png</t>
+  </si>
+  <si>
+    <t>images/5DCVMRA.png</t>
+  </si>
+  <si>
+    <t>images/5DCVPHFBA.png</t>
+  </si>
+  <si>
+    <t>images/5DCVPHFCA.png</t>
+  </si>
+  <si>
+    <t>images/5DAHAA.png</t>
+  </si>
+  <si>
+    <t>images/5DAHAB.png</t>
+  </si>
+  <si>
+    <t>images/5DAHAC.png</t>
+  </si>
+  <si>
+    <t>images/5DAHAD.png</t>
+  </si>
+  <si>
+    <t>images/5DAHAPHSA.png</t>
+  </si>
+  <si>
+    <t>images/5DAHBA.png</t>
+  </si>
+  <si>
+    <t>images/5DAHBB.png</t>
+  </si>
+  <si>
+    <t>images/5DAHBC.png</t>
+  </si>
+  <si>
+    <t>images/5DAHIA.png</t>
+  </si>
+  <si>
+    <t>images/5DAVM1A.png</t>
+  </si>
+  <si>
+    <t>images/5DAVM1X.png</t>
+  </si>
+  <si>
+    <t>images/5DAVM3A.png</t>
+  </si>
+  <si>
+    <t>images/5DAVM3B.png</t>
+  </si>
+  <si>
+    <t>images/5DAVM3C.png</t>
+  </si>
+  <si>
+    <t>images/5DAVM3CA.png</t>
+  </si>
+  <si>
+    <t>images/5DAVMRA.png</t>
+  </si>
+  <si>
+    <t>images/5DAVMRB.png</t>
+  </si>
+  <si>
+    <t>images/5DAVMRC.png</t>
+  </si>
+  <si>
+    <t>images/5DAVMRD.png</t>
+  </si>
+  <si>
+    <t>images/5DAVPHCBA.png</t>
+  </si>
+  <si>
+    <t>images/5DAVPHCCA.png</t>
+  </si>
+  <si>
+    <t>images/5DAVPHFBA.png</t>
+  </si>
+  <si>
+    <t>images/5DAVPHFBB.png</t>
+  </si>
+  <si>
+    <t>images/5DAVPHFCA.png</t>
+  </si>
+  <si>
+    <t>images/5DAVPHFCB.png</t>
+  </si>
+  <si>
+    <t>images/5DAVPHSBA.png</t>
+  </si>
+  <si>
+    <t>images/5DAVPHSPA.png</t>
+  </si>
+  <si>
+    <t>images/5DBHAA.png</t>
+  </si>
+  <si>
+    <t>images/5DBHBA.png</t>
+  </si>
+  <si>
+    <t>images/5DBVM3A.png</t>
+  </si>
+  <si>
+    <t>images/5DBVMRA.png</t>
+  </si>
+  <si>
+    <t>images/5DBVPHFBA.png</t>
+  </si>
+  <si>
+    <t>images/5DBVPHFCA.png</t>
+  </si>
+  <si>
+    <t>images/5DBVPHFX.png</t>
+  </si>
+  <si>
+    <t>images/5R0HAPJAA.png</t>
+  </si>
+  <si>
+    <t>images/5R0PJBA0.png</t>
+  </si>
+  <si>
+    <t>images/5R0PJBAL.png</t>
+  </si>
+  <si>
+    <t>images/5R0PJBAS.png</t>
+  </si>
+  <si>
+    <t>images/5R0PJBB0.png</t>
+  </si>
+  <si>
+    <t>images/5R0PJBCX.png</t>
+  </si>
+  <si>
+    <t>images/5R0PJBD0.png</t>
+  </si>
+  <si>
+    <t>images/5R0PJBEM.png</t>
+  </si>
+  <si>
+    <t>images/5R0PJBDA.png</t>
+  </si>
+  <si>
+    <t>images/5R0PJBDB.png</t>
+  </si>
+  <si>
+    <t>images/5R0PJBDC.png</t>
+  </si>
+  <si>
+    <t>images/5R0PJFA0.png</t>
+  </si>
+  <si>
+    <t>images/5R0PJFA1.png</t>
+  </si>
+  <si>
+    <t>images/5R0PJFB1.png</t>
+  </si>
+  <si>
+    <t>images/5R0PJFC0.png</t>
+  </si>
+  <si>
+    <t>images/5R0PJFDA.png</t>
+  </si>
+  <si>
+    <t>images/5R0PJFDB.png</t>
+  </si>
+  <si>
+    <t>images/5R0PJOA.png</t>
+  </si>
+  <si>
+    <t>images/5R0PJOB.png</t>
+  </si>
+  <si>
+    <t>images/5R0PJSAL.png</t>
+  </si>
+  <si>
+    <t>images/5R0PJSAS.png</t>
+  </si>
+  <si>
+    <t>images/5R0PJSA0.png</t>
+  </si>
+  <si>
+    <t>images/5R0PJSDA.png</t>
+  </si>
+  <si>
+    <t>images/5R0PJSDB.png</t>
+  </si>
+  <si>
+    <t>images/5R0SAA.png</t>
+  </si>
+  <si>
+    <t>images/5R0TRA0.png</t>
+  </si>
+  <si>
+    <t>images/5R0VBC.png</t>
+  </si>
+  <si>
+    <t>images/5R0VMQA.png</t>
+  </si>
+  <si>
+    <t>images/5R0VRP.png</t>
+  </si>
+  <si>
+    <t>images/5R0VRPQ.png</t>
+  </si>
+  <si>
+    <t>images/5R0VTPA.png</t>
+  </si>
+  <si>
+    <t>images/5R0VTPB.png</t>
+  </si>
+  <si>
+    <t>images/5RAHAA.png</t>
+  </si>
+  <si>
+    <t>images/5RAHAB.png</t>
+  </si>
+  <si>
+    <t>images/5RAHAPJBA.png</t>
+  </si>
+  <si>
+    <t>images/5RAHAPJBB.png</t>
+  </si>
+  <si>
+    <t>images/5RAHAPJFA.png</t>
+  </si>
+  <si>
+    <t>images/5RAHAPJFB.png</t>
+  </si>
+  <si>
+    <t>images/5RAHAPJSA.png</t>
+  </si>
+  <si>
+    <t>images/5RAHAPJSB.png</t>
+  </si>
+  <si>
+    <t>images/5RAHBA.png</t>
+  </si>
+  <si>
+    <t>images/5RAHBB.png</t>
+  </si>
+  <si>
+    <t>images/5RAHIA.png</t>
+  </si>
+  <si>
+    <t>images/5RASWC1.png</t>
+  </si>
+  <si>
+    <t>images/5RASWC2.png</t>
+  </si>
+  <si>
+    <t>images/5RATRA0.png</t>
+  </si>
+  <si>
+    <t>images/5RATRB0.png</t>
+  </si>
+  <si>
+    <t>images/5RAVM1A.png</t>
+  </si>
+  <si>
+    <t>images/5RAVM2A.png</t>
+  </si>
+  <si>
+    <t>images/5RAVM3A.png</t>
+  </si>
+  <si>
+    <t>images/5RAVM3CA.png</t>
+  </si>
+  <si>
+    <t>images/5RAVMQA.png</t>
+  </si>
+  <si>
+    <t>images/5RAVMRA.png</t>
+  </si>
+  <si>
+    <t>images/5RAVPJABA.png</t>
+  </si>
+  <si>
+    <t>images/5RAVPJAPA.png</t>
+  </si>
+  <si>
+    <t>images/5RAVPJBBA.png</t>
+  </si>
+  <si>
+    <t>images/5RAVPJBCA.png</t>
+  </si>
+  <si>
+    <t>images/5RAVPJFBA.png</t>
+  </si>
+  <si>
+    <t>images/5RAVPJFCA.png</t>
+  </si>
+  <si>
+    <t>images/5RAVPJSBA.png</t>
+  </si>
+  <si>
+    <t>images/5RAVPJSPA.png</t>
+  </si>
+  <si>
+    <t>images/5RAVTPKA.png</t>
+  </si>
+  <si>
+    <t>images/5RAVTPKB.png</t>
+  </si>
+  <si>
+    <t>images/5RAVTPKC.png</t>
+  </si>
+  <si>
+    <t>images/5RAVWCA.png</t>
+  </si>
+  <si>
+    <t>images/5RAVWCB.png</t>
+  </si>
+  <si>
+    <t>images/5RAVWCC.png</t>
+  </si>
+  <si>
+    <t>images/5RAVWCD.png</t>
+  </si>
+  <si>
+    <t>images/5RBHAA.png</t>
+  </si>
+  <si>
+    <t>images/5RBHAB.png</t>
+  </si>
+  <si>
+    <t>images/5RBHAC.png</t>
+  </si>
+  <si>
+    <t>images/5RBHAD.png</t>
+  </si>
+  <si>
+    <t>images/5RBHAE.png</t>
+  </si>
+  <si>
+    <t>images/5RBHAPJBA.png</t>
+  </si>
+  <si>
+    <t>images/5RBHAPJBB.png</t>
+  </si>
+  <si>
+    <t>images/5RBHAPJFA.png</t>
+  </si>
+  <si>
+    <t>images/5RBHAPJFB.png</t>
+  </si>
+  <si>
+    <t>images/5RBHAPJFC.png</t>
+  </si>
+  <si>
+    <t>images/5RBHAPJOA.png</t>
+  </si>
+  <si>
+    <t>images/5RBHAPJSA.png</t>
+  </si>
+  <si>
+    <t>images/5RBHAPJSB.png</t>
+  </si>
+  <si>
+    <t>images/5RBHAPJSC.png</t>
+  </si>
+  <si>
+    <t>images/5RBHAPJOE.png</t>
+  </si>
+  <si>
+    <t>images/5RBHBB.png</t>
+  </si>
+  <si>
+    <t>images/5RBHBPJOR.png</t>
+  </si>
+  <si>
+    <t>images/5RBHIA.png</t>
+  </si>
+  <si>
+    <t>images/5RBHIB.png</t>
+  </si>
+  <si>
+    <t>images/5RBHIC.png</t>
+  </si>
+  <si>
+    <t>images/5RBTRA0.png</t>
+  </si>
+  <si>
+    <t>images/5RBTRB0.png</t>
+  </si>
+  <si>
+    <t>images/5RBTRC0.png</t>
+  </si>
+  <si>
+    <t>images/5RBVM1A.png</t>
+  </si>
+  <si>
+    <t>images/5RBVM1B.png</t>
+  </si>
+  <si>
+    <t>images/5RBVM1C.png</t>
+  </si>
+  <si>
+    <t>images/5RBVM2A.png</t>
+  </si>
+  <si>
+    <t>images/5RBVM3A.png</t>
+  </si>
+  <si>
+    <t>images/5RBVM3CA.png</t>
+  </si>
+  <si>
+    <t>images/5RBVMRA.png</t>
+  </si>
+  <si>
+    <t>images/5RBVMRB.png</t>
+  </si>
+  <si>
+    <t>images/5RBVPJABA.png</t>
+  </si>
+  <si>
+    <t>images/5RBVPJAPA.png</t>
+  </si>
+  <si>
+    <t>images/5RBVPJBBA.png</t>
+  </si>
+  <si>
+    <t>images/5RBVPJBCA.png</t>
+  </si>
+  <si>
+    <t>images/5RBVPJFBA.png</t>
+  </si>
+  <si>
+    <t>images/5RBVPJFCA.png</t>
+  </si>
+  <si>
+    <t>images/5RBVPJOBA.png</t>
+  </si>
+  <si>
+    <t>images/5RBVPJOPA.png</t>
+  </si>
+  <si>
+    <t>images/5RBVPJSBA.png</t>
+  </si>
+  <si>
+    <t>images/5RBVPJSPA.png</t>
+  </si>
+  <si>
+    <t>images/5RBVTPKA.png</t>
+  </si>
+  <si>
+    <t>images/5RBVTPKB.png</t>
+  </si>
+  <si>
+    <t>images/5RBVTPKC.png</t>
+  </si>
+  <si>
+    <t>images/5RBVWCA.png</t>
+  </si>
+  <si>
+    <t>images/5RBVWCB.png</t>
+  </si>
+  <si>
+    <t>images/5RCHAA.png</t>
+  </si>
+  <si>
+    <t>images/5RCHAB.png</t>
+  </si>
+  <si>
+    <t>images/5RCHAPJBA.png</t>
+  </si>
+  <si>
+    <t>images/5RCHAPJBB.png</t>
+  </si>
+  <si>
+    <t>images/5RCHAPJFA.png</t>
+  </si>
+  <si>
+    <t>images/5RCHAPJFB.png</t>
+  </si>
+  <si>
+    <t>images/5RCHAPJSA.png</t>
+  </si>
+  <si>
+    <t>images/5RCHAPJSB.png</t>
+  </si>
+  <si>
+    <t>images/5RCHBA.png</t>
+  </si>
+  <si>
+    <t>images/5RCHBB.png</t>
+  </si>
+  <si>
+    <t>images/5RCHIA.png</t>
+  </si>
+  <si>
+    <t>images/5RCHIB.png</t>
+  </si>
+  <si>
+    <t>images/5RCTRA0.png</t>
+  </si>
+  <si>
+    <t>images/5RCTRB0.png</t>
+  </si>
+  <si>
+    <t>images/5RCVM1A.png</t>
+  </si>
+  <si>
+    <t>images/5RCVM2A.png</t>
+  </si>
+  <si>
+    <t>images/5RCVM3A.png</t>
+  </si>
+  <si>
+    <t>images/5RCVM3B.png</t>
+  </si>
+  <si>
+    <t>images/5RCVM3C.png</t>
+  </si>
+  <si>
+    <t>images/5RCVMRA.png</t>
+  </si>
+  <si>
+    <t>images/5RCVPJBBA.png</t>
+  </si>
+  <si>
+    <t>images/5RCVPJBCA.png</t>
+  </si>
+  <si>
+    <t>images/5RCVPJFBA.png</t>
+  </si>
+  <si>
+    <t>images/5RCVPJFCA.png</t>
+  </si>
+  <si>
+    <t>images/5RCVPJSBA.png</t>
+  </si>
+  <si>
+    <t>images/5RCVPJSPA.png</t>
+  </si>
+  <si>
+    <t>images/5RCVPCR0.png</t>
+  </si>
+  <si>
+    <t>images/5RCVTPKA.png</t>
+  </si>
+  <si>
+    <t>images/5RCVTPKB.png</t>
+  </si>
+  <si>
+    <t>images/5RCVTPKC.png</t>
+  </si>
+  <si>
+    <t>images/5RDHAA.png</t>
+  </si>
+  <si>
+    <t>images/5RDHAPJOA.png</t>
+  </si>
+  <si>
+    <t>images/5RDHBA.png</t>
+  </si>
+  <si>
+    <t>images/5RDHBPJO.png</t>
+  </si>
+  <si>
+    <t>images/5RDTRA0.png</t>
+  </si>
+  <si>
+    <t>images/5RDVM1A.png</t>
+  </si>
+  <si>
+    <t>images/5RDVMRA.png</t>
+  </si>
+  <si>
+    <t>images/5RDVPJOBA.png</t>
+  </si>
+  <si>
+    <t>images/5RDVPJOPA.png</t>
+  </si>
+  <si>
+    <t>images/5RDVWCA.png</t>
+  </si>
+  <si>
+    <t>images/5REVM3CA.png</t>
+  </si>
+  <si>
+    <t>images/5REVWCA.png</t>
+  </si>
+  <si>
+    <t>images/5SSHAPA.png</t>
+  </si>
+  <si>
+    <t>images/5SSPJAB.png</t>
+  </si>
+  <si>
+    <t>images/5SSPJAF.png</t>
+  </si>
+  <si>
+    <t>images/5SSPJAG.png</t>
+  </si>
+  <si>
+    <t>images/5SSTRA0.png</t>
+  </si>
+  <si>
+    <t>images/5SSVMRA.png</t>
+  </si>
+  <si>
+    <t>images/RJL66.png</t>
+  </si>
+  <si>
+    <t>images/RJL55.png</t>
   </si>
 </sst>
 </file>
@@ -3701,8 +3701,8 @@
   <dimension ref="A1:H304"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A293" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E312" sqref="E312"/>
+      <pane ySplit="1" topLeftCell="A287" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G314" sqref="G314"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3719,7 +3719,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1050</v>
+        <v>757</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -3766,7 +3766,7 @@
         <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>757</v>
+        <v>799</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -3792,7 +3792,7 @@
         <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>758</v>
+        <v>800</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -3818,7 +3818,7 @@
         <v>17</v>
       </c>
       <c r="H4" t="s">
-        <v>759</v>
+        <v>801</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -3844,7 +3844,7 @@
         <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>760</v>
+        <v>802</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -3870,7 +3870,7 @@
         <v>23</v>
       </c>
       <c r="H6" t="s">
-        <v>761</v>
+        <v>803</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -3896,7 +3896,7 @@
         <v>25</v>
       </c>
       <c r="H7" t="s">
-        <v>762</v>
+        <v>804</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -3922,7 +3922,7 @@
         <v>27</v>
       </c>
       <c r="H8" t="s">
-        <v>763</v>
+        <v>805</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -3948,7 +3948,7 @@
         <v>29</v>
       </c>
       <c r="H9" t="s">
-        <v>764</v>
+        <v>806</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -3974,7 +3974,7 @@
         <v>31</v>
       </c>
       <c r="H10" t="s">
-        <v>765</v>
+        <v>807</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -4000,7 +4000,7 @@
         <v>31</v>
       </c>
       <c r="H11" t="s">
-        <v>766</v>
+        <v>808</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -4026,7 +4026,7 @@
         <v>35</v>
       </c>
       <c r="H12" t="s">
-        <v>767</v>
+        <v>809</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -4052,7 +4052,7 @@
         <v>39</v>
       </c>
       <c r="H13" t="s">
-        <v>768</v>
+        <v>810</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -4078,7 +4078,7 @@
         <v>42</v>
       </c>
       <c r="H14" t="s">
-        <v>769</v>
+        <v>811</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -4104,7 +4104,7 @@
         <v>45</v>
       </c>
       <c r="H15" t="s">
-        <v>770</v>
+        <v>812</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -4130,7 +4130,7 @@
         <v>212</v>
       </c>
       <c r="H16" t="s">
-        <v>830</v>
+        <v>813</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -4156,7 +4156,7 @@
         <v>214</v>
       </c>
       <c r="H17" t="s">
-        <v>831</v>
+        <v>814</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -4182,7 +4182,7 @@
         <v>216</v>
       </c>
       <c r="H18" t="s">
-        <v>832</v>
+        <v>815</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -4208,7 +4208,7 @@
         <v>218</v>
       </c>
       <c r="H19" t="s">
-        <v>833</v>
+        <v>816</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -4234,7 +4234,7 @@
         <v>220</v>
       </c>
       <c r="H20" t="s">
-        <v>834</v>
+        <v>817</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -4260,7 +4260,7 @@
         <v>220</v>
       </c>
       <c r="H21" t="s">
-        <v>835</v>
+        <v>818</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -4286,7 +4286,7 @@
         <v>223</v>
       </c>
       <c r="H22" t="s">
-        <v>836</v>
+        <v>819</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -4312,7 +4312,7 @@
         <v>225</v>
       </c>
       <c r="H23" t="s">
-        <v>837</v>
+        <v>820</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -4338,7 +4338,7 @@
         <v>227</v>
       </c>
       <c r="H24" t="s">
-        <v>838</v>
+        <v>821</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -4364,7 +4364,7 @@
         <v>229</v>
       </c>
       <c r="H25" t="s">
-        <v>839</v>
+        <v>822</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -4390,7 +4390,7 @@
         <v>231</v>
       </c>
       <c r="H26" t="s">
-        <v>840</v>
+        <v>823</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -4416,7 +4416,7 @@
         <v>233</v>
       </c>
       <c r="H27" t="s">
-        <v>841</v>
+        <v>824</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -4442,7 +4442,7 @@
         <v>235</v>
       </c>
       <c r="H28" t="s">
-        <v>842</v>
+        <v>825</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -4468,7 +4468,7 @@
         <v>237</v>
       </c>
       <c r="H29" t="s">
-        <v>843</v>
+        <v>826</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -4494,7 +4494,7 @@
         <v>239</v>
       </c>
       <c r="H30" t="s">
-        <v>844</v>
+        <v>827</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -4520,7 +4520,7 @@
         <v>241</v>
       </c>
       <c r="H31" t="s">
-        <v>845</v>
+        <v>828</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -4546,7 +4546,7 @@
         <v>243</v>
       </c>
       <c r="H32" t="s">
-        <v>846</v>
+        <v>829</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -4572,7 +4572,7 @@
         <v>245</v>
       </c>
       <c r="H33" t="s">
-        <v>847</v>
+        <v>830</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -4598,7 +4598,7 @@
         <v>247</v>
       </c>
       <c r="H34" t="s">
-        <v>848</v>
+        <v>831</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -4624,7 +4624,7 @@
         <v>250</v>
       </c>
       <c r="H35" t="s">
-        <v>849</v>
+        <v>832</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -4650,7 +4650,7 @@
         <v>252</v>
       </c>
       <c r="H36" t="s">
-        <v>850</v>
+        <v>833</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -4676,7 +4676,7 @@
         <v>254</v>
       </c>
       <c r="H37" t="s">
-        <v>851</v>
+        <v>834</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -4702,7 +4702,7 @@
         <v>256</v>
       </c>
       <c r="H38" t="s">
-        <v>852</v>
+        <v>835</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -4728,7 +4728,7 @@
         <v>258</v>
       </c>
       <c r="H39" t="s">
-        <v>853</v>
+        <v>836</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -4754,7 +4754,7 @@
         <v>260</v>
       </c>
       <c r="H40" t="s">
-        <v>854</v>
+        <v>837</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -4780,7 +4780,7 @@
         <v>262</v>
       </c>
       <c r="H41" t="s">
-        <v>855</v>
+        <v>838</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -4806,7 +4806,7 @@
         <v>264</v>
       </c>
       <c r="H42" t="s">
-        <v>856</v>
+        <v>839</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -4832,7 +4832,7 @@
         <v>266</v>
       </c>
       <c r="H43" t="s">
-        <v>857</v>
+        <v>840</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -4858,7 +4858,7 @@
         <v>268</v>
       </c>
       <c r="H44" t="s">
-        <v>858</v>
+        <v>841</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -4884,7 +4884,7 @@
         <v>271</v>
       </c>
       <c r="H45" t="s">
-        <v>859</v>
+        <v>842</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -4910,7 +4910,7 @@
         <v>273</v>
       </c>
       <c r="H46" t="s">
-        <v>860</v>
+        <v>843</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -4936,7 +4936,7 @@
         <v>275</v>
       </c>
       <c r="H47" t="s">
-        <v>861</v>
+        <v>844</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -4962,7 +4962,7 @@
         <v>278</v>
       </c>
       <c r="H48" t="s">
-        <v>862</v>
+        <v>845</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -4988,7 +4988,7 @@
         <v>280</v>
       </c>
       <c r="H49" t="s">
-        <v>863</v>
+        <v>846</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -5014,7 +5014,7 @@
         <v>282</v>
       </c>
       <c r="H50" t="s">
-        <v>864</v>
+        <v>847</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -5040,7 +5040,7 @@
         <v>284</v>
       </c>
       <c r="H51" t="s">
-        <v>865</v>
+        <v>848</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -5066,7 +5066,7 @@
         <v>286</v>
       </c>
       <c r="H52" t="s">
-        <v>866</v>
+        <v>849</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -5092,7 +5092,7 @@
         <v>288</v>
       </c>
       <c r="H53" t="s">
-        <v>867</v>
+        <v>850</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -5118,12 +5118,12 @@
         <v>290</v>
       </c>
       <c r="H54" t="s">
-        <v>868</v>
+        <v>851</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>1051</v>
+        <v>758</v>
       </c>
       <c r="B55" t="s">
         <v>363</v>
@@ -5144,12 +5144,12 @@
         <v>367</v>
       </c>
       <c r="H55" t="s">
-        <v>903</v>
+        <v>852</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>1051</v>
+        <v>758</v>
       </c>
       <c r="B56" t="s">
         <v>363</v>
@@ -5170,12 +5170,12 @@
         <v>370</v>
       </c>
       <c r="H56" t="s">
-        <v>904</v>
+        <v>853</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>1051</v>
+        <v>758</v>
       </c>
       <c r="B57" t="s">
         <v>363</v>
@@ -5196,12 +5196,12 @@
         <v>370</v>
       </c>
       <c r="H57" t="s">
-        <v>905</v>
+        <v>854</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>1051</v>
+        <v>758</v>
       </c>
       <c r="B58" t="s">
         <v>363</v>
@@ -5222,12 +5222,12 @@
         <v>373</v>
       </c>
       <c r="H58" t="s">
-        <v>906</v>
+        <v>855</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>1051</v>
+        <v>758</v>
       </c>
       <c r="B59" t="s">
         <v>363</v>
@@ -5248,12 +5248,12 @@
         <v>376</v>
       </c>
       <c r="H59" t="s">
-        <v>907</v>
+        <v>856</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>1051</v>
+        <v>758</v>
       </c>
       <c r="B60" t="s">
         <v>377</v>
@@ -5274,12 +5274,12 @@
         <v>380</v>
       </c>
       <c r="H60" t="s">
-        <v>908</v>
+        <v>857</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>1051</v>
+        <v>758</v>
       </c>
       <c r="B61" t="s">
         <v>377</v>
@@ -5300,12 +5300,12 @@
         <v>382</v>
       </c>
       <c r="H61" t="s">
-        <v>909</v>
+        <v>858</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>1051</v>
+        <v>758</v>
       </c>
       <c r="B62" t="s">
         <v>377</v>
@@ -5326,12 +5326,12 @@
         <v>384</v>
       </c>
       <c r="H62" t="s">
-        <v>910</v>
+        <v>859</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>1051</v>
+        <v>758</v>
       </c>
       <c r="B63" t="s">
         <v>377</v>
@@ -5352,12 +5352,12 @@
         <v>386</v>
       </c>
       <c r="H63" t="s">
-        <v>911</v>
+        <v>860</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>1051</v>
+        <v>758</v>
       </c>
       <c r="B64" t="s">
         <v>377</v>
@@ -5378,12 +5378,12 @@
         <v>388</v>
       </c>
       <c r="H64" t="s">
-        <v>912</v>
+        <v>861</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>1051</v>
+        <v>758</v>
       </c>
       <c r="B65" t="s">
         <v>377</v>
@@ -5404,12 +5404,12 @@
         <v>390</v>
       </c>
       <c r="H65" t="s">
-        <v>913</v>
+        <v>862</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>1051</v>
+        <v>758</v>
       </c>
       <c r="B66" t="s">
         <v>391</v>
@@ -5430,12 +5430,12 @@
         <v>367</v>
       </c>
       <c r="H66" t="s">
-        <v>914</v>
+        <v>863</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>1051</v>
+        <v>758</v>
       </c>
       <c r="B67" t="s">
         <v>391</v>
@@ -5456,12 +5456,12 @@
         <v>370</v>
       </c>
       <c r="H67" t="s">
-        <v>915</v>
+        <v>864</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>1051</v>
+        <v>758</v>
       </c>
       <c r="B68" t="s">
         <v>391</v>
@@ -5482,12 +5482,12 @@
         <v>396</v>
       </c>
       <c r="H68" t="s">
-        <v>916</v>
+        <v>865</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>1051</v>
+        <v>758</v>
       </c>
       <c r="B69" t="s">
         <v>397</v>
@@ -5508,12 +5508,12 @@
         <v>380</v>
       </c>
       <c r="H69" t="s">
-        <v>917</v>
+        <v>866</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>1051</v>
+        <v>758</v>
       </c>
       <c r="B70" t="s">
         <v>397</v>
@@ -5534,12 +5534,12 @@
         <v>384</v>
       </c>
       <c r="H70" t="s">
-        <v>918</v>
+        <v>867</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>1051</v>
+        <v>758</v>
       </c>
       <c r="B71" t="s">
         <v>397</v>
@@ -5560,12 +5560,12 @@
         <v>402</v>
       </c>
       <c r="H71" t="s">
-        <v>919</v>
+        <v>868</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>1051</v>
+        <v>758</v>
       </c>
       <c r="B72" t="s">
         <v>397</v>
@@ -5586,12 +5586,12 @@
         <v>404</v>
       </c>
       <c r="H72" t="s">
-        <v>920</v>
+        <v>869</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>1051</v>
+        <v>758</v>
       </c>
       <c r="B73" t="s">
         <v>405</v>
@@ -5612,12 +5612,12 @@
         <v>408</v>
       </c>
       <c r="H73" t="s">
-        <v>921</v>
+        <v>870</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>1051</v>
+        <v>758</v>
       </c>
       <c r="B74" t="s">
         <v>405</v>
@@ -5638,12 +5638,12 @@
         <v>410</v>
       </c>
       <c r="H74" t="s">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>1051</v>
+        <v>758</v>
       </c>
       <c r="B75" t="s">
         <v>405</v>
@@ -5664,12 +5664,12 @@
         <v>412</v>
       </c>
       <c r="H75" t="s">
-        <v>923</v>
+        <v>872</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>1051</v>
+        <v>758</v>
       </c>
       <c r="B76" t="s">
         <v>405</v>
@@ -5690,12 +5690,12 @@
         <v>414</v>
       </c>
       <c r="H76" t="s">
-        <v>924</v>
+        <v>873</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>1051</v>
+        <v>758</v>
       </c>
       <c r="B77" t="s">
         <v>405</v>
@@ -5716,12 +5716,12 @@
         <v>416</v>
       </c>
       <c r="H77" t="s">
-        <v>925</v>
+        <v>874</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>1051</v>
+        <v>758</v>
       </c>
       <c r="B78" t="s">
         <v>405</v>
@@ -5742,12 +5742,12 @@
         <v>418</v>
       </c>
       <c r="H78" t="s">
-        <v>926</v>
+        <v>875</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>1051</v>
+        <v>758</v>
       </c>
       <c r="B79" t="s">
         <v>405</v>
@@ -5768,12 +5768,12 @@
         <v>420</v>
       </c>
       <c r="H79" t="s">
-        <v>927</v>
+        <v>876</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>1052</v>
+        <v>759</v>
       </c>
       <c r="B80" t="s">
         <v>46</v>
@@ -5794,12 +5794,12 @@
         <v>48</v>
       </c>
       <c r="H80" t="s">
-        <v>771</v>
+        <v>877</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>1052</v>
+        <v>759</v>
       </c>
       <c r="B81" t="s">
         <v>46</v>
@@ -5820,12 +5820,12 @@
         <v>50</v>
       </c>
       <c r="H81" t="s">
-        <v>772</v>
+        <v>878</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>1052</v>
+        <v>759</v>
       </c>
       <c r="B82" t="s">
         <v>46</v>
@@ -5846,12 +5846,12 @@
         <v>52</v>
       </c>
       <c r="H82" t="s">
-        <v>773</v>
+        <v>879</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>1052</v>
+        <v>759</v>
       </c>
       <c r="B83" t="s">
         <v>46</v>
@@ -5872,12 +5872,12 @@
         <v>55</v>
       </c>
       <c r="H83" t="s">
-        <v>774</v>
+        <v>880</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>1052</v>
+        <v>759</v>
       </c>
       <c r="B84" t="s">
         <v>46</v>
@@ -5898,12 +5898,12 @@
         <v>58</v>
       </c>
       <c r="H84" t="s">
-        <v>775</v>
+        <v>881</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>1052</v>
+        <v>759</v>
       </c>
       <c r="B85" t="s">
         <v>46</v>
@@ -5924,12 +5924,12 @@
         <v>61</v>
       </c>
       <c r="H85" t="s">
-        <v>776</v>
+        <v>882</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>1052</v>
+        <v>759</v>
       </c>
       <c r="B86" t="s">
         <v>46</v>
@@ -5950,12 +5950,12 @@
         <v>64</v>
       </c>
       <c r="H86" t="s">
-        <v>777</v>
+        <v>883</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>1052</v>
+        <v>759</v>
       </c>
       <c r="B87" t="s">
         <v>46</v>
@@ -5976,12 +5976,12 @@
         <v>67</v>
       </c>
       <c r="H87" t="s">
-        <v>778</v>
+        <v>884</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>1052</v>
+        <v>759</v>
       </c>
       <c r="B88" t="s">
         <v>46</v>
@@ -6002,12 +6002,12 @@
         <v>70</v>
       </c>
       <c r="H88" t="s">
-        <v>779</v>
+        <v>885</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>1052</v>
+        <v>759</v>
       </c>
       <c r="B89" t="s">
         <v>46</v>
@@ -6028,12 +6028,12 @@
         <v>73</v>
       </c>
       <c r="H89" t="s">
-        <v>780</v>
+        <v>886</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>1052</v>
+        <v>759</v>
       </c>
       <c r="B90" t="s">
         <v>46</v>
@@ -6054,12 +6054,12 @@
         <v>75</v>
       </c>
       <c r="H90" t="s">
-        <v>781</v>
+        <v>887</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>1052</v>
+        <v>759</v>
       </c>
       <c r="B91" t="s">
         <v>46</v>
@@ -6080,12 +6080,12 @@
         <v>77</v>
       </c>
       <c r="H91" t="s">
-        <v>782</v>
+        <v>888</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>1052</v>
+        <v>759</v>
       </c>
       <c r="B92" t="s">
         <v>46</v>
@@ -6106,12 +6106,12 @@
         <v>79</v>
       </c>
       <c r="H92" t="s">
-        <v>783</v>
+        <v>889</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>1052</v>
+        <v>759</v>
       </c>
       <c r="B93" t="s">
         <v>46</v>
@@ -6132,12 +6132,12 @@
         <v>82</v>
       </c>
       <c r="H93" t="s">
-        <v>784</v>
+        <v>890</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>1052</v>
+        <v>759</v>
       </c>
       <c r="B94" t="s">
         <v>83</v>
@@ -6158,12 +6158,12 @@
         <v>85</v>
       </c>
       <c r="H94" t="s">
-        <v>785</v>
+        <v>891</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>1052</v>
+        <v>759</v>
       </c>
       <c r="B95" t="s">
         <v>83</v>
@@ -6184,12 +6184,12 @@
         <v>87</v>
       </c>
       <c r="H95" t="s">
-        <v>786</v>
+        <v>892</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>1052</v>
+        <v>759</v>
       </c>
       <c r="B96" t="s">
         <v>83</v>
@@ -6210,12 +6210,12 @@
         <v>91</v>
       </c>
       <c r="H96" t="s">
-        <v>787</v>
+        <v>893</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>1052</v>
+        <v>759</v>
       </c>
       <c r="B97" t="s">
         <v>83</v>
@@ -6236,12 +6236,12 @@
         <v>93</v>
       </c>
       <c r="H97" t="s">
-        <v>788</v>
+        <v>894</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>1052</v>
+        <v>759</v>
       </c>
       <c r="B98" t="s">
         <v>83</v>
@@ -6262,12 +6262,12 @@
         <v>96</v>
       </c>
       <c r="H98" t="s">
-        <v>789</v>
+        <v>895</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>1052</v>
+        <v>759</v>
       </c>
       <c r="B99" t="s">
         <v>83</v>
@@ -6288,12 +6288,12 @@
         <v>99</v>
       </c>
       <c r="H99" t="s">
-        <v>790</v>
+        <v>896</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>1052</v>
+        <v>759</v>
       </c>
       <c r="B100" t="s">
         <v>83</v>
@@ -6314,12 +6314,12 @@
         <v>101</v>
       </c>
       <c r="H100" t="s">
-        <v>791</v>
+        <v>897</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>1052</v>
+        <v>759</v>
       </c>
       <c r="B101" t="s">
         <v>83</v>
@@ -6340,12 +6340,12 @@
         <v>103</v>
       </c>
       <c r="H101" t="s">
-        <v>792</v>
+        <v>898</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>1052</v>
+        <v>759</v>
       </c>
       <c r="B102" t="s">
         <v>291</v>
@@ -6366,12 +6366,12 @@
         <v>293</v>
       </c>
       <c r="H102" t="s">
-        <v>869</v>
+        <v>899</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>1052</v>
+        <v>759</v>
       </c>
       <c r="B103" t="s">
         <v>291</v>
@@ -6392,12 +6392,12 @@
         <v>295</v>
       </c>
       <c r="H103" t="s">
-        <v>870</v>
+        <v>900</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>1052</v>
+        <v>759</v>
       </c>
       <c r="B104" t="s">
         <v>291</v>
@@ -6418,12 +6418,12 @@
         <v>297</v>
       </c>
       <c r="H104" t="s">
-        <v>871</v>
+        <v>901</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>1052</v>
+        <v>759</v>
       </c>
       <c r="B105" t="s">
         <v>291</v>
@@ -6444,12 +6444,12 @@
         <v>299</v>
       </c>
       <c r="H105" t="s">
-        <v>872</v>
+        <v>902</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>1052</v>
+        <v>759</v>
       </c>
       <c r="B106" t="s">
         <v>291</v>
@@ -6470,12 +6470,12 @@
         <v>301</v>
       </c>
       <c r="H106" t="s">
-        <v>873</v>
+        <v>903</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>1052</v>
+        <v>759</v>
       </c>
       <c r="B107" t="s">
         <v>291</v>
@@ -6496,12 +6496,12 @@
         <v>303</v>
       </c>
       <c r="H107" t="s">
-        <v>874</v>
+        <v>904</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>1052</v>
+        <v>759</v>
       </c>
       <c r="B108" t="s">
         <v>291</v>
@@ -6522,12 +6522,12 @@
         <v>305</v>
       </c>
       <c r="H108" t="s">
-        <v>875</v>
+        <v>905</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>1052</v>
+        <v>759</v>
       </c>
       <c r="B109" t="s">
         <v>291</v>
@@ -6548,12 +6548,12 @@
         <v>307</v>
       </c>
       <c r="H109" t="s">
-        <v>876</v>
+        <v>906</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>1052</v>
+        <v>759</v>
       </c>
       <c r="B110" t="s">
         <v>291</v>
@@ -6574,12 +6574,12 @@
         <v>310</v>
       </c>
       <c r="H110" t="s">
-        <v>877</v>
+        <v>907</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>1052</v>
+        <v>759</v>
       </c>
       <c r="B111" t="s">
         <v>291</v>
@@ -6600,12 +6600,12 @@
         <v>312</v>
       </c>
       <c r="H111" t="s">
-        <v>878</v>
+        <v>908</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>1052</v>
+        <v>759</v>
       </c>
       <c r="B112" t="s">
         <v>291</v>
@@ -6626,12 +6626,12 @@
         <v>314</v>
       </c>
       <c r="H112" t="s">
-        <v>879</v>
+        <v>909</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>1052</v>
+        <v>759</v>
       </c>
       <c r="B113" t="s">
         <v>291</v>
@@ -6652,12 +6652,12 @@
         <v>317</v>
       </c>
       <c r="H113" t="s">
-        <v>880</v>
+        <v>910</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>1052</v>
+        <v>759</v>
       </c>
       <c r="B114" t="s">
         <v>291</v>
@@ -6678,12 +6678,12 @@
         <v>319</v>
       </c>
       <c r="H114" t="s">
-        <v>881</v>
+        <v>911</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>1052</v>
+        <v>759</v>
       </c>
       <c r="B115" t="s">
         <v>291</v>
@@ -6704,12 +6704,12 @@
         <v>321</v>
       </c>
       <c r="H115" t="s">
-        <v>882</v>
+        <v>912</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>1052</v>
+        <v>759</v>
       </c>
       <c r="B116" t="s">
         <v>291</v>
@@ -6730,12 +6730,12 @@
         <v>323</v>
       </c>
       <c r="H116" t="s">
-        <v>883</v>
+        <v>913</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>1052</v>
+        <v>759</v>
       </c>
       <c r="B117" t="s">
         <v>291</v>
@@ -6756,12 +6756,12 @@
         <v>325</v>
       </c>
       <c r="H117" t="s">
-        <v>884</v>
+        <v>914</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>1052</v>
+        <v>759</v>
       </c>
       <c r="B118" t="s">
         <v>291</v>
@@ -6782,12 +6782,12 @@
         <v>327</v>
       </c>
       <c r="H118" t="s">
-        <v>885</v>
+        <v>915</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>1052</v>
+        <v>759</v>
       </c>
       <c r="B119" t="s">
         <v>291</v>
@@ -6808,12 +6808,12 @@
         <v>329</v>
       </c>
       <c r="H119" t="s">
-        <v>886</v>
+        <v>916</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>1052</v>
+        <v>759</v>
       </c>
       <c r="B120" t="s">
         <v>291</v>
@@ -6834,12 +6834,12 @@
         <v>331</v>
       </c>
       <c r="H120" t="s">
-        <v>887</v>
+        <v>917</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>1052</v>
+        <v>759</v>
       </c>
       <c r="B121" t="s">
         <v>291</v>
@@ -6860,12 +6860,12 @@
         <v>333</v>
       </c>
       <c r="H121" t="s">
-        <v>888</v>
+        <v>918</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>1052</v>
+        <v>759</v>
       </c>
       <c r="B122" t="s">
         <v>291</v>
@@ -6886,12 +6886,12 @@
         <v>335</v>
       </c>
       <c r="H122" t="s">
-        <v>889</v>
+        <v>919</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>1052</v>
+        <v>759</v>
       </c>
       <c r="B123" t="s">
         <v>291</v>
@@ -6912,12 +6912,12 @@
         <v>337</v>
       </c>
       <c r="H123" t="s">
-        <v>890</v>
+        <v>920</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>1052</v>
+        <v>759</v>
       </c>
       <c r="B124" t="s">
         <v>291</v>
@@ -6938,12 +6938,12 @@
         <v>339</v>
       </c>
       <c r="H124" t="s">
-        <v>891</v>
+        <v>921</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>1052</v>
+        <v>759</v>
       </c>
       <c r="B125" t="s">
         <v>291</v>
@@ -6964,12 +6964,12 @@
         <v>341</v>
       </c>
       <c r="H125" t="s">
-        <v>892</v>
+        <v>922</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>1052</v>
+        <v>759</v>
       </c>
       <c r="B126" t="s">
         <v>291</v>
@@ -6990,12 +6990,12 @@
         <v>343</v>
       </c>
       <c r="H126" t="s">
-        <v>893</v>
+        <v>923</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>1052</v>
+        <v>759</v>
       </c>
       <c r="B127" t="s">
         <v>291</v>
@@ -7016,12 +7016,12 @@
         <v>345</v>
       </c>
       <c r="H127" t="s">
-        <v>894</v>
+        <v>924</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>1052</v>
+        <v>759</v>
       </c>
       <c r="B128" t="s">
         <v>291</v>
@@ -7042,12 +7042,12 @@
         <v>347</v>
       </c>
       <c r="H128" t="s">
-        <v>895</v>
+        <v>925</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>1052</v>
+        <v>759</v>
       </c>
       <c r="B129" t="s">
         <v>348</v>
@@ -7068,12 +7068,12 @@
         <v>350</v>
       </c>
       <c r="H129" t="s">
-        <v>896</v>
+        <v>926</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>1052</v>
+        <v>759</v>
       </c>
       <c r="B130" t="s">
         <v>348</v>
@@ -7094,12 +7094,12 @@
         <v>352</v>
       </c>
       <c r="H130" t="s">
-        <v>897</v>
+        <v>927</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>1052</v>
+        <v>759</v>
       </c>
       <c r="B131" t="s">
         <v>348</v>
@@ -7120,12 +7120,12 @@
         <v>354</v>
       </c>
       <c r="H131" t="s">
-        <v>898</v>
+        <v>928</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>1052</v>
+        <v>759</v>
       </c>
       <c r="B132" t="s">
         <v>348</v>
@@ -7146,12 +7146,12 @@
         <v>356</v>
       </c>
       <c r="H132" t="s">
-        <v>899</v>
+        <v>929</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>1052</v>
+        <v>759</v>
       </c>
       <c r="B133" t="s">
         <v>348</v>
@@ -7172,12 +7172,12 @@
         <v>358</v>
       </c>
       <c r="H133" t="s">
-        <v>900</v>
+        <v>930</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>1052</v>
+        <v>759</v>
       </c>
       <c r="B134" t="s">
         <v>348</v>
@@ -7198,12 +7198,12 @@
         <v>360</v>
       </c>
       <c r="H134" t="s">
-        <v>901</v>
+        <v>931</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>1052</v>
+        <v>759</v>
       </c>
       <c r="B135" t="s">
         <v>348</v>
@@ -7224,12 +7224,12 @@
         <v>362</v>
       </c>
       <c r="H135" t="s">
-        <v>902</v>
+        <v>932</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B136" t="s">
         <v>104</v>
@@ -7250,12 +7250,12 @@
         <v>106</v>
       </c>
       <c r="H136" t="s">
-        <v>793</v>
+        <v>933</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B137" t="s">
         <v>104</v>
@@ -7276,12 +7276,12 @@
         <v>110</v>
       </c>
       <c r="H137" t="s">
-        <v>794</v>
+        <v>934</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B138" t="s">
         <v>104</v>
@@ -7302,12 +7302,12 @@
         <v>113</v>
       </c>
       <c r="H138" t="s">
-        <v>795</v>
+        <v>935</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B139" t="s">
         <v>104</v>
@@ -7328,12 +7328,12 @@
         <v>116</v>
       </c>
       <c r="H139" t="s">
-        <v>796</v>
+        <v>936</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B140" t="s">
         <v>104</v>
@@ -7354,12 +7354,12 @@
         <v>119</v>
       </c>
       <c r="H140" t="s">
-        <v>797</v>
+        <v>937</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B141" t="s">
         <v>104</v>
@@ -7380,12 +7380,12 @@
         <v>122</v>
       </c>
       <c r="H141" t="s">
-        <v>798</v>
+        <v>938</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B142" t="s">
         <v>104</v>
@@ -7406,12 +7406,12 @@
         <v>125</v>
       </c>
       <c r="H142" t="s">
-        <v>799</v>
+        <v>939</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B143" t="s">
         <v>104</v>
@@ -7426,18 +7426,18 @@
         <v>126</v>
       </c>
       <c r="F143" t="s">
-        <v>1056</v>
+        <v>763</v>
       </c>
       <c r="G143" t="s">
         <v>127</v>
       </c>
       <c r="H143" t="s">
-        <v>800</v>
+        <v>940</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B144" t="s">
         <v>104</v>
@@ -7458,12 +7458,12 @@
         <v>130</v>
       </c>
       <c r="H144" t="s">
-        <v>801</v>
+        <v>941</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B145" t="s">
         <v>104</v>
@@ -7484,12 +7484,12 @@
         <v>132</v>
       </c>
       <c r="H145" t="s">
-        <v>802</v>
+        <v>942</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B146" t="s">
         <v>104</v>
@@ -7510,12 +7510,12 @@
         <v>134</v>
       </c>
       <c r="H146" t="s">
-        <v>803</v>
+        <v>943</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B147" t="s">
         <v>104</v>
@@ -7536,12 +7536,12 @@
         <v>138</v>
       </c>
       <c r="H147" t="s">
-        <v>804</v>
+        <v>944</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B148" t="s">
         <v>104</v>
@@ -7562,12 +7562,12 @@
         <v>141</v>
       </c>
       <c r="H148" t="s">
-        <v>805</v>
+        <v>945</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B149" t="s">
         <v>104</v>
@@ -7588,12 +7588,12 @@
         <v>144</v>
       </c>
       <c r="H149" t="s">
-        <v>806</v>
+        <v>946</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B150" t="s">
         <v>104</v>
@@ -7614,12 +7614,12 @@
         <v>147</v>
       </c>
       <c r="H150" t="s">
-        <v>807</v>
+        <v>947</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B151" t="s">
         <v>104</v>
@@ -7640,12 +7640,12 @@
         <v>150</v>
       </c>
       <c r="H151" t="s">
-        <v>808</v>
+        <v>948</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B152" t="s">
         <v>104</v>
@@ -7666,12 +7666,12 @@
         <v>152</v>
       </c>
       <c r="H152" t="s">
-        <v>809</v>
+        <v>949</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B153" t="s">
         <v>104</v>
@@ -7686,18 +7686,18 @@
         <v>154</v>
       </c>
       <c r="F153" t="s">
-        <v>1057</v>
+        <v>764</v>
       </c>
       <c r="G153" t="s">
         <v>157</v>
       </c>
       <c r="H153" t="s">
-        <v>810</v>
+        <v>950</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B154" t="s">
         <v>104</v>
@@ -7718,12 +7718,12 @@
         <v>155</v>
       </c>
       <c r="H154" t="s">
-        <v>811</v>
+        <v>951</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B155" t="s">
         <v>104</v>
@@ -7744,12 +7744,12 @@
         <v>163</v>
       </c>
       <c r="H155" t="s">
-        <v>812</v>
+        <v>952</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B156" t="s">
         <v>104</v>
@@ -7770,12 +7770,12 @@
         <v>166</v>
       </c>
       <c r="H156" t="s">
-        <v>813</v>
+        <v>953</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B157" t="s">
         <v>104</v>
@@ -7787,7 +7787,7 @@
         <v>158</v>
       </c>
       <c r="E157" t="s">
-        <v>1058</v>
+        <v>765</v>
       </c>
       <c r="F157" t="s">
         <v>159</v>
@@ -7796,12 +7796,12 @@
         <v>160</v>
       </c>
       <c r="H157" t="s">
-        <v>1092</v>
+        <v>954</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B158" t="s">
         <v>104</v>
@@ -7822,12 +7822,12 @@
         <v>169</v>
       </c>
       <c r="H158" t="s">
-        <v>814</v>
+        <v>955</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B159" t="s">
         <v>104</v>
@@ -7848,12 +7848,12 @@
         <v>171</v>
       </c>
       <c r="H159" t="s">
-        <v>815</v>
+        <v>956</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B160" t="s">
         <v>104</v>
@@ -7874,12 +7874,12 @@
         <v>175</v>
       </c>
       <c r="H160" t="s">
-        <v>816</v>
+        <v>957</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B161" t="s">
         <v>104</v>
@@ -7900,12 +7900,12 @@
         <v>177</v>
       </c>
       <c r="H161" t="s">
-        <v>817</v>
+        <v>958</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B162" t="s">
         <v>104</v>
@@ -7926,12 +7926,12 @@
         <v>179</v>
       </c>
       <c r="H162" t="s">
-        <v>818</v>
+        <v>959</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B163" t="s">
         <v>104</v>
@@ -7952,12 +7952,12 @@
         <v>182</v>
       </c>
       <c r="H163" t="s">
-        <v>819</v>
+        <v>960</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B164" t="s">
         <v>104</v>
@@ -7978,12 +7978,12 @@
         <v>186</v>
       </c>
       <c r="H164" t="s">
-        <v>820</v>
+        <v>961</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B165" t="s">
         <v>104</v>
@@ -8004,12 +8004,12 @@
         <v>189</v>
       </c>
       <c r="H165" t="s">
-        <v>821</v>
+        <v>962</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B166" t="s">
         <v>104</v>
@@ -8024,18 +8024,18 @@
         <v>191</v>
       </c>
       <c r="F166" t="s">
-        <v>1059</v>
+        <v>766</v>
       </c>
       <c r="G166" t="s">
         <v>192</v>
       </c>
       <c r="H166" t="s">
-        <v>822</v>
+        <v>963</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B167" t="s">
         <v>104</v>
@@ -8056,12 +8056,12 @@
         <v>195</v>
       </c>
       <c r="H167" t="s">
-        <v>823</v>
+        <v>964</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B168" t="s">
         <v>421</v>
@@ -8082,12 +8082,12 @@
         <v>424</v>
       </c>
       <c r="H168" t="s">
-        <v>928</v>
+        <v>965</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B169" t="s">
         <v>421</v>
@@ -8108,12 +8108,12 @@
         <v>426</v>
       </c>
       <c r="H169" t="s">
-        <v>929</v>
+        <v>966</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B170" t="s">
         <v>421</v>
@@ -8134,12 +8134,12 @@
         <v>429</v>
       </c>
       <c r="H170" t="s">
-        <v>930</v>
+        <v>967</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B171" t="s">
         <v>421</v>
@@ -8160,12 +8160,12 @@
         <v>432</v>
       </c>
       <c r="H171" t="s">
-        <v>931</v>
+        <v>968</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B172" t="s">
         <v>421</v>
@@ -8186,12 +8186,12 @@
         <v>434</v>
       </c>
       <c r="H172" t="s">
-        <v>932</v>
+        <v>969</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B173" t="s">
         <v>421</v>
@@ -8212,12 +8212,12 @@
         <v>436</v>
       </c>
       <c r="H173" t="s">
-        <v>933</v>
+        <v>970</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B174" t="s">
         <v>421</v>
@@ -8238,12 +8238,12 @@
         <v>439</v>
       </c>
       <c r="H174" t="s">
-        <v>934</v>
+        <v>971</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B175" t="s">
         <v>421</v>
@@ -8264,12 +8264,12 @@
         <v>442</v>
       </c>
       <c r="H175" t="s">
-        <v>935</v>
+        <v>972</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B176" t="s">
         <v>421</v>
@@ -8290,12 +8290,12 @@
         <v>445</v>
       </c>
       <c r="H176" t="s">
-        <v>936</v>
+        <v>973</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B177" t="s">
         <v>421</v>
@@ -8316,12 +8316,12 @@
         <v>448</v>
       </c>
       <c r="H177" t="s">
-        <v>937</v>
+        <v>974</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B178" t="s">
         <v>421</v>
@@ -8342,12 +8342,12 @@
         <v>451</v>
       </c>
       <c r="H178" t="s">
-        <v>938</v>
+        <v>975</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B179" t="s">
         <v>421</v>
@@ -8368,12 +8368,12 @@
         <v>455</v>
       </c>
       <c r="H179" t="s">
-        <v>939</v>
+        <v>976</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B180" t="s">
         <v>421</v>
@@ -8394,12 +8394,12 @@
         <v>458</v>
       </c>
       <c r="H180" t="s">
-        <v>940</v>
+        <v>977</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B181" t="s">
         <v>421</v>
@@ -8420,12 +8420,12 @@
         <v>461</v>
       </c>
       <c r="H181" t="s">
-        <v>941</v>
+        <v>978</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B182" t="s">
         <v>421</v>
@@ -8446,12 +8446,12 @@
         <v>464</v>
       </c>
       <c r="H182" t="s">
-        <v>942</v>
+        <v>979</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B183" t="s">
         <v>421</v>
@@ -8472,12 +8472,12 @@
         <v>466</v>
       </c>
       <c r="H183" t="s">
-        <v>943</v>
+        <v>980</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B184" t="s">
         <v>421</v>
@@ -8498,12 +8498,12 @@
         <v>468</v>
       </c>
       <c r="H184" t="s">
-        <v>944</v>
+        <v>981</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B185" t="s">
         <v>421</v>
@@ -8524,12 +8524,12 @@
         <v>470</v>
       </c>
       <c r="H185" t="s">
-        <v>945</v>
+        <v>982</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B186" t="s">
         <v>421</v>
@@ -8550,12 +8550,12 @@
         <v>473</v>
       </c>
       <c r="H186" t="s">
-        <v>946</v>
+        <v>983</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B187" t="s">
         <v>421</v>
@@ -8576,12 +8576,12 @@
         <v>475</v>
       </c>
       <c r="H187" t="s">
-        <v>947</v>
+        <v>984</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B188" t="s">
         <v>421</v>
@@ -8602,12 +8602,12 @@
         <v>478</v>
       </c>
       <c r="H188" t="s">
-        <v>948</v>
+        <v>985</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B189" t="s">
         <v>421</v>
@@ -8628,12 +8628,12 @@
         <v>480</v>
       </c>
       <c r="H189" t="s">
-        <v>949</v>
+        <v>986</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B190" t="s">
         <v>421</v>
@@ -8654,12 +8654,12 @@
         <v>482</v>
       </c>
       <c r="H190" t="s">
-        <v>950</v>
+        <v>987</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B191" t="s">
         <v>421</v>
@@ -8680,12 +8680,12 @@
         <v>485</v>
       </c>
       <c r="H191" t="s">
-        <v>951</v>
+        <v>988</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B192" t="s">
         <v>421</v>
@@ -8706,12 +8706,12 @@
         <v>488</v>
       </c>
       <c r="H192" t="s">
-        <v>952</v>
+        <v>989</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B193" t="s">
         <v>421</v>
@@ -8732,12 +8732,12 @@
         <v>490</v>
       </c>
       <c r="H193" t="s">
-        <v>953</v>
+        <v>990</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B194" t="s">
         <v>421</v>
@@ -8758,12 +8758,12 @@
         <v>492</v>
       </c>
       <c r="H194" t="s">
-        <v>954</v>
+        <v>991</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B195" t="s">
         <v>421</v>
@@ -8784,12 +8784,12 @@
         <v>495</v>
       </c>
       <c r="H195" t="s">
-        <v>955</v>
+        <v>992</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B196" t="s">
         <v>421</v>
@@ -8810,12 +8810,12 @@
         <v>498</v>
       </c>
       <c r="H196" t="s">
-        <v>956</v>
+        <v>993</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B197" t="s">
         <v>421</v>
@@ -8836,12 +8836,12 @@
         <v>500</v>
       </c>
       <c r="H197" t="s">
-        <v>957</v>
+        <v>994</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B198" t="s">
         <v>421</v>
@@ -8862,12 +8862,12 @@
         <v>502</v>
       </c>
       <c r="H198" t="s">
-        <v>958</v>
+        <v>995</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B199" t="s">
         <v>421</v>
@@ -8888,12 +8888,12 @@
         <v>504</v>
       </c>
       <c r="H199" t="s">
-        <v>959</v>
+        <v>996</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B200" t="s">
         <v>421</v>
@@ -8914,12 +8914,12 @@
         <v>507</v>
       </c>
       <c r="H200" t="s">
-        <v>960</v>
+        <v>997</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B201" t="s">
         <v>421</v>
@@ -8940,12 +8940,12 @@
         <v>509</v>
       </c>
       <c r="H201" t="s">
-        <v>961</v>
+        <v>998</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B202" t="s">
         <v>421</v>
@@ -8966,12 +8966,12 @@
         <v>511</v>
       </c>
       <c r="H202" t="s">
-        <v>962</v>
+        <v>999</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B203" t="s">
         <v>421</v>
@@ -8992,12 +8992,12 @@
         <v>513</v>
       </c>
       <c r="H203" t="s">
-        <v>963</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B204" t="s">
         <v>514</v>
@@ -9018,12 +9018,12 @@
         <v>517</v>
       </c>
       <c r="H204" t="s">
-        <v>964</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B205" t="s">
         <v>514</v>
@@ -9044,12 +9044,12 @@
         <v>520</v>
       </c>
       <c r="H205" t="s">
-        <v>965</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B206" t="s">
         <v>514</v>
@@ -9070,12 +9070,12 @@
         <v>525</v>
       </c>
       <c r="H206" t="s">
-        <v>966</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B207" t="s">
         <v>514</v>
@@ -9096,12 +9096,12 @@
         <v>523</v>
       </c>
       <c r="H207" t="s">
-        <v>967</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B208" t="s">
         <v>514</v>
@@ -9116,18 +9116,18 @@
         <v>526</v>
       </c>
       <c r="F208" t="s">
-        <v>1060</v>
+        <v>767</v>
       </c>
       <c r="G208" t="s">
         <v>527</v>
       </c>
       <c r="H208" t="s">
-        <v>968</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B209" t="s">
         <v>514</v>
@@ -9148,12 +9148,12 @@
         <v>530</v>
       </c>
       <c r="H209" t="s">
-        <v>969</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B210" t="s">
         <v>514</v>
@@ -9174,12 +9174,12 @@
         <v>533</v>
       </c>
       <c r="H210" t="s">
-        <v>970</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B211" t="s">
         <v>514</v>
@@ -9194,18 +9194,18 @@
         <v>534</v>
       </c>
       <c r="F211" t="s">
-        <v>1061</v>
+        <v>768</v>
       </c>
       <c r="G211" t="s">
         <v>535</v>
       </c>
       <c r="H211" t="s">
-        <v>971</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B212" t="s">
         <v>514</v>
@@ -9220,18 +9220,18 @@
         <v>536</v>
       </c>
       <c r="F212" t="s">
-        <v>1062</v>
+        <v>769</v>
       </c>
       <c r="G212" t="s">
         <v>537</v>
       </c>
       <c r="H212" t="s">
-        <v>972</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B213" t="s">
         <v>514</v>
@@ -9246,18 +9246,18 @@
         <v>538</v>
       </c>
       <c r="F213" t="s">
-        <v>1063</v>
+        <v>770</v>
       </c>
       <c r="G213" t="s">
         <v>539</v>
       </c>
       <c r="H213" t="s">
-        <v>973</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B214" t="s">
         <v>514</v>
@@ -9278,12 +9278,12 @@
         <v>541</v>
       </c>
       <c r="H214" t="s">
-        <v>974</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B215" t="s">
         <v>514</v>
@@ -9304,12 +9304,12 @@
         <v>544</v>
       </c>
       <c r="H215" t="s">
-        <v>975</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B216" t="s">
         <v>514</v>
@@ -9330,12 +9330,12 @@
         <v>547</v>
       </c>
       <c r="H216" t="s">
-        <v>976</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B217" t="s">
         <v>514</v>
@@ -9356,12 +9356,12 @@
         <v>550</v>
       </c>
       <c r="H217" t="s">
-        <v>977</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B218" t="s">
         <v>514</v>
@@ -9373,21 +9373,21 @@
         <v>9</v>
       </c>
       <c r="E218" t="s">
-        <v>1064</v>
+        <v>771</v>
       </c>
       <c r="F218" t="s">
-        <v>1065</v>
+        <v>772</v>
       </c>
       <c r="G218" t="s">
         <v>551</v>
       </c>
       <c r="H218" t="s">
-        <v>1093</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B219" t="s">
         <v>514</v>
@@ -9408,12 +9408,12 @@
         <v>554</v>
       </c>
       <c r="H219" t="s">
-        <v>978</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B220" t="s">
         <v>514</v>
@@ -9425,21 +9425,21 @@
         <v>555</v>
       </c>
       <c r="E220" t="s">
-        <v>1066</v>
+        <v>773</v>
       </c>
       <c r="F220" t="s">
-        <v>1067</v>
+        <v>774</v>
       </c>
       <c r="G220" t="s">
         <v>556</v>
       </c>
       <c r="H220" t="s">
-        <v>1094</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B221" t="s">
         <v>514</v>
@@ -9460,12 +9460,12 @@
         <v>559</v>
       </c>
       <c r="H221" t="s">
-        <v>979</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B222" t="s">
         <v>514</v>
@@ -9486,12 +9486,12 @@
         <v>561</v>
       </c>
       <c r="H222" t="s">
-        <v>980</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B223" t="s">
         <v>514</v>
@@ -9512,12 +9512,12 @@
         <v>563</v>
       </c>
       <c r="H223" t="s">
-        <v>981</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B224" t="s">
         <v>514</v>
@@ -9538,12 +9538,12 @@
         <v>566</v>
       </c>
       <c r="H224" t="s">
-        <v>982</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B225" t="s">
         <v>514</v>
@@ -9564,12 +9564,12 @@
         <v>569</v>
       </c>
       <c r="H225" t="s">
-        <v>983</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B226" t="s">
         <v>514</v>
@@ -9590,12 +9590,12 @@
         <v>572</v>
       </c>
       <c r="H226" t="s">
-        <v>984</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B227" t="s">
         <v>514</v>
@@ -9616,12 +9616,12 @@
         <v>575</v>
       </c>
       <c r="H227" t="s">
-        <v>985</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B228" t="s">
         <v>514</v>
@@ -9642,12 +9642,12 @@
         <v>578</v>
       </c>
       <c r="H228" t="s">
-        <v>986</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B229" t="s">
         <v>514</v>
@@ -9668,12 +9668,12 @@
         <v>581</v>
       </c>
       <c r="H229" t="s">
-        <v>987</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B230" t="s">
         <v>514</v>
@@ -9694,12 +9694,12 @@
         <v>584</v>
       </c>
       <c r="H230" t="s">
-        <v>988</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B231" t="s">
         <v>514</v>
@@ -9720,12 +9720,12 @@
         <v>587</v>
       </c>
       <c r="H231" t="s">
-        <v>989</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B232" t="s">
         <v>514</v>
@@ -9746,12 +9746,12 @@
         <v>590</v>
       </c>
       <c r="H232" t="s">
-        <v>990</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B233" t="s">
         <v>514</v>
@@ -9772,12 +9772,12 @@
         <v>593</v>
       </c>
       <c r="H233" t="s">
-        <v>991</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B234" t="s">
         <v>514</v>
@@ -9798,12 +9798,12 @@
         <v>596</v>
       </c>
       <c r="H234" t="s">
-        <v>992</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B235" t="s">
         <v>514</v>
@@ -9824,12 +9824,12 @@
         <v>599</v>
       </c>
       <c r="H235" t="s">
-        <v>993</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B236" t="s">
         <v>514</v>
@@ -9850,12 +9850,12 @@
         <v>602</v>
       </c>
       <c r="H236" t="s">
-        <v>994</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B237" t="s">
         <v>514</v>
@@ -9876,12 +9876,12 @@
         <v>605</v>
       </c>
       <c r="H237" t="s">
-        <v>995</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B238" t="s">
         <v>514</v>
@@ -9902,12 +9902,12 @@
         <v>608</v>
       </c>
       <c r="H238" t="s">
-        <v>996</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B239" t="s">
         <v>514</v>
@@ -9928,12 +9928,12 @@
         <v>611</v>
       </c>
       <c r="H239" t="s">
-        <v>997</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B240" t="s">
         <v>514</v>
@@ -9954,12 +9954,12 @@
         <v>614</v>
       </c>
       <c r="H240" t="s">
-        <v>998</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B241" t="s">
         <v>514</v>
@@ -9980,12 +9980,12 @@
         <v>617</v>
       </c>
       <c r="H241" t="s">
-        <v>999</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B242" t="s">
         <v>514</v>
@@ -10006,12 +10006,12 @@
         <v>620</v>
       </c>
       <c r="H242" t="s">
-        <v>1000</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B243" t="s">
         <v>514</v>
@@ -10032,12 +10032,12 @@
         <v>623</v>
       </c>
       <c r="H243" t="s">
-        <v>1001</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B244" t="s">
         <v>514</v>
@@ -10058,12 +10058,12 @@
         <v>626</v>
       </c>
       <c r="H244" t="s">
-        <v>1002</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B245" t="s">
         <v>514</v>
@@ -10084,12 +10084,12 @@
         <v>629</v>
       </c>
       <c r="H245" t="s">
-        <v>1003</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B246" t="s">
         <v>514</v>
@@ -10110,12 +10110,12 @@
         <v>632</v>
       </c>
       <c r="H246" t="s">
-        <v>1004</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B247" t="s">
         <v>514</v>
@@ -10136,12 +10136,12 @@
         <v>635</v>
       </c>
       <c r="H247" t="s">
-        <v>1005</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B248" t="s">
         <v>514</v>
@@ -10162,12 +10162,12 @@
         <v>638</v>
       </c>
       <c r="H248" t="s">
-        <v>1006</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B249" t="s">
         <v>514</v>
@@ -10188,12 +10188,12 @@
         <v>641</v>
       </c>
       <c r="H249" t="s">
-        <v>1007</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B250" t="s">
         <v>642</v>
@@ -10214,12 +10214,12 @@
         <v>645</v>
       </c>
       <c r="H250" t="s">
-        <v>1008</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B251" t="s">
         <v>642</v>
@@ -10234,18 +10234,18 @@
         <v>646</v>
       </c>
       <c r="F251" t="s">
-        <v>1068</v>
+        <v>775</v>
       </c>
       <c r="G251" t="s">
         <v>647</v>
       </c>
       <c r="H251" t="s">
-        <v>1009</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B252" t="s">
         <v>642</v>
@@ -10266,12 +10266,12 @@
         <v>650</v>
       </c>
       <c r="H252" t="s">
-        <v>1010</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B253" t="s">
         <v>642</v>
@@ -10292,12 +10292,12 @@
         <v>653</v>
       </c>
       <c r="H253" t="s">
-        <v>1011</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B254" t="s">
         <v>642</v>
@@ -10318,12 +10318,12 @@
         <v>656</v>
       </c>
       <c r="H254" t="s">
-        <v>1012</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B255" t="s">
         <v>642</v>
@@ -10344,12 +10344,12 @@
         <v>659</v>
       </c>
       <c r="H255" t="s">
-        <v>1013</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B256" t="s">
         <v>642</v>
@@ -10370,12 +10370,12 @@
         <v>662</v>
       </c>
       <c r="H256" t="s">
-        <v>1014</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B257" t="s">
         <v>642</v>
@@ -10396,12 +10396,12 @@
         <v>665</v>
       </c>
       <c r="H257" t="s">
-        <v>1015</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B258" t="s">
         <v>642</v>
@@ -10422,12 +10422,12 @@
         <v>668</v>
       </c>
       <c r="H258" t="s">
-        <v>1016</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B259" t="s">
         <v>642</v>
@@ -10448,12 +10448,12 @@
         <v>670</v>
       </c>
       <c r="H259" t="s">
-        <v>1017</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B260" t="s">
         <v>642</v>
@@ -10468,18 +10468,18 @@
         <v>671</v>
       </c>
       <c r="F260" t="s">
-        <v>1069</v>
+        <v>776</v>
       </c>
       <c r="G260" t="s">
         <v>672</v>
       </c>
       <c r="H260" t="s">
-        <v>1018</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B261" t="s">
         <v>642</v>
@@ -10494,18 +10494,18 @@
         <v>673</v>
       </c>
       <c r="F261" t="s">
-        <v>1055</v>
+        <v>762</v>
       </c>
       <c r="G261" t="s">
         <v>674</v>
       </c>
       <c r="H261" t="s">
-        <v>1019</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B262" t="s">
         <v>642</v>
@@ -10526,12 +10526,12 @@
         <v>677</v>
       </c>
       <c r="H262" t="s">
-        <v>1020</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B263" t="s">
         <v>642</v>
@@ -10546,18 +10546,18 @@
         <v>678</v>
       </c>
       <c r="F263" t="s">
-        <v>1070</v>
+        <v>777</v>
       </c>
       <c r="G263" t="s">
         <v>679</v>
       </c>
       <c r="H263" t="s">
-        <v>1021</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B264" t="s">
         <v>642</v>
@@ -10578,12 +10578,12 @@
         <v>682</v>
       </c>
       <c r="H264" t="s">
-        <v>1022</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B265" t="s">
         <v>642</v>
@@ -10598,18 +10598,18 @@
         <v>683</v>
       </c>
       <c r="F265" t="s">
-        <v>1071</v>
+        <v>778</v>
       </c>
       <c r="G265" t="s">
         <v>684</v>
       </c>
       <c r="H265" t="s">
-        <v>1023</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B266" t="s">
         <v>642</v>
@@ -10624,18 +10624,18 @@
         <v>685</v>
       </c>
       <c r="F266" t="s">
-        <v>1072</v>
+        <v>779</v>
       </c>
       <c r="G266" t="s">
         <v>686</v>
       </c>
       <c r="H266" t="s">
-        <v>1024</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B267" t="s">
         <v>642</v>
@@ -10650,18 +10650,18 @@
         <v>687</v>
       </c>
       <c r="F267" t="s">
-        <v>1073</v>
+        <v>780</v>
       </c>
       <c r="G267" t="s">
         <v>688</v>
       </c>
       <c r="H267" t="s">
-        <v>1025</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B268" t="s">
         <v>642</v>
@@ -10676,18 +10676,18 @@
         <v>689</v>
       </c>
       <c r="F268" t="s">
-        <v>1074</v>
+        <v>781</v>
       </c>
       <c r="G268" t="s">
         <v>690</v>
       </c>
       <c r="H268" t="s">
-        <v>1026</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B269" t="s">
         <v>642</v>
@@ -10708,12 +10708,12 @@
         <v>693</v>
       </c>
       <c r="H269" t="s">
-        <v>1027</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B270" t="s">
         <v>642</v>
@@ -10734,12 +10734,12 @@
         <v>696</v>
       </c>
       <c r="H270" t="s">
-        <v>1028</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B271" t="s">
         <v>642</v>
@@ -10760,12 +10760,12 @@
         <v>699</v>
       </c>
       <c r="H271" t="s">
-        <v>1029</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B272" t="s">
         <v>642</v>
@@ -10786,12 +10786,12 @@
         <v>702</v>
       </c>
       <c r="H272" t="s">
-        <v>1030</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B273" t="s">
         <v>642</v>
@@ -10812,12 +10812,12 @@
         <v>705</v>
       </c>
       <c r="H273" t="s">
-        <v>1031</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B274" t="s">
         <v>642</v>
@@ -10838,12 +10838,12 @@
         <v>708</v>
       </c>
       <c r="H274" t="s">
-        <v>1032</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B275" t="s">
         <v>642</v>
@@ -10864,12 +10864,12 @@
         <v>711</v>
       </c>
       <c r="H275" t="s">
-        <v>1033</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B276" t="s">
         <v>642</v>
@@ -10890,12 +10890,12 @@
         <v>715</v>
       </c>
       <c r="H276" t="s">
-        <v>1034</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B277" t="s">
         <v>642</v>
@@ -10916,12 +10916,12 @@
         <v>718</v>
       </c>
       <c r="H277" t="s">
-        <v>1035</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B278" t="s">
         <v>642</v>
@@ -10942,12 +10942,12 @@
         <v>721</v>
       </c>
       <c r="H278" t="s">
-        <v>1036</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B279" t="s">
         <v>642</v>
@@ -10968,12 +10968,12 @@
         <v>724</v>
       </c>
       <c r="H279" t="s">
-        <v>1037</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B280" t="s">
         <v>725</v>
@@ -10994,12 +10994,12 @@
         <v>728</v>
       </c>
       <c r="H280" t="s">
-        <v>1038</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B281" t="s">
         <v>725</v>
@@ -11020,12 +11020,12 @@
         <v>730</v>
       </c>
       <c r="H281" t="s">
-        <v>1039</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B282" t="s">
         <v>725</v>
@@ -11046,12 +11046,12 @@
         <v>733</v>
       </c>
       <c r="H282" t="s">
-        <v>1040</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B283" t="s">
         <v>725</v>
@@ -11072,12 +11072,12 @@
         <v>735</v>
       </c>
       <c r="H283" t="s">
-        <v>1041</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B284" t="s">
         <v>725</v>
@@ -11098,12 +11098,12 @@
         <v>738</v>
       </c>
       <c r="H284" t="s">
-        <v>1042</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B285" t="s">
         <v>725</v>
@@ -11124,12 +11124,12 @@
         <v>741</v>
       </c>
       <c r="H285" t="s">
-        <v>1043</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B286" t="s">
         <v>725</v>
@@ -11150,12 +11150,12 @@
         <v>744</v>
       </c>
       <c r="H286" t="s">
-        <v>1044</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B287" t="s">
         <v>725</v>
@@ -11176,12 +11176,12 @@
         <v>746</v>
       </c>
       <c r="H287" t="s">
-        <v>1045</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B288" t="s">
         <v>725</v>
@@ -11202,12 +11202,12 @@
         <v>748</v>
       </c>
       <c r="H288" t="s">
-        <v>1046</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B289" t="s">
         <v>725</v>
@@ -11228,12 +11228,12 @@
         <v>751</v>
       </c>
       <c r="H289" t="s">
-        <v>1047</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B290" t="s">
         <v>752</v>
@@ -11254,12 +11254,12 @@
         <v>754</v>
       </c>
       <c r="H290" t="s">
-        <v>1048</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>1053</v>
+        <v>760</v>
       </c>
       <c r="B291" t="s">
         <v>752</v>
@@ -11280,12 +11280,12 @@
         <v>756</v>
       </c>
       <c r="H291" t="s">
-        <v>1049</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>1054</v>
+        <v>761</v>
       </c>
       <c r="B292" t="s">
         <v>196</v>
@@ -11306,12 +11306,12 @@
         <v>198</v>
       </c>
       <c r="H292" t="s">
-        <v>824</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>1054</v>
+        <v>761</v>
       </c>
       <c r="B293" t="s">
         <v>196</v>
@@ -11332,12 +11332,12 @@
         <v>201</v>
       </c>
       <c r="H293" t="s">
-        <v>825</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>1054</v>
+        <v>761</v>
       </c>
       <c r="B294" t="s">
         <v>196</v>
@@ -11358,12 +11358,12 @@
         <v>203</v>
       </c>
       <c r="H294" t="s">
-        <v>826</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>1054</v>
+        <v>761</v>
       </c>
       <c r="B295" t="s">
         <v>196</v>
@@ -11384,12 +11384,12 @@
         <v>205</v>
       </c>
       <c r="H295" t="s">
-        <v>827</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>1054</v>
+        <v>761</v>
       </c>
       <c r="B296" t="s">
         <v>196</v>
@@ -11410,12 +11410,12 @@
         <v>207</v>
       </c>
       <c r="H296" t="s">
-        <v>828</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>1054</v>
+        <v>761</v>
       </c>
       <c r="B297" t="s">
         <v>196</v>
@@ -11436,30 +11436,30 @@
         <v>209</v>
       </c>
       <c r="H297" t="s">
-        <v>829</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>1075</v>
+        <v>782</v>
       </c>
       <c r="B298" t="s">
-        <v>1076</v>
+        <v>783</v>
       </c>
       <c r="C298" t="s">
-        <v>1077</v>
+        <v>784</v>
       </c>
       <c r="D298">
         <v>66</v>
       </c>
       <c r="E298" t="s">
-        <v>1078</v>
+        <v>785</v>
       </c>
       <c r="F298" t="s">
-        <v>1078</v>
+        <v>785</v>
       </c>
       <c r="G298" t="s">
-        <v>1079</v>
+        <v>786</v>
       </c>
       <c r="H298" t="s">
         <v>1095</v>
@@ -11467,25 +11467,25 @@
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>1075</v>
+        <v>782</v>
       </c>
       <c r="B299" t="s">
-        <v>1076</v>
+        <v>783</v>
       </c>
       <c r="C299" t="s">
-        <v>1077</v>
+        <v>784</v>
       </c>
       <c r="D299">
         <v>66</v>
       </c>
       <c r="E299" t="s">
-        <v>1080</v>
+        <v>787</v>
       </c>
       <c r="F299" t="s">
-        <v>1080</v>
+        <v>787</v>
       </c>
       <c r="G299" t="s">
-        <v>1081</v>
+        <v>788</v>
       </c>
       <c r="H299" t="s">
         <v>1095</v>
@@ -11493,25 +11493,25 @@
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>1075</v>
+        <v>782</v>
       </c>
       <c r="B300" t="s">
-        <v>1076</v>
+        <v>783</v>
       </c>
       <c r="C300" t="s">
-        <v>1077</v>
+        <v>784</v>
       </c>
       <c r="D300">
         <v>66</v>
       </c>
       <c r="E300" t="s">
-        <v>1082</v>
+        <v>789</v>
       </c>
       <c r="F300" t="s">
-        <v>1082</v>
+        <v>789</v>
       </c>
       <c r="G300" t="s">
-        <v>1083</v>
+        <v>790</v>
       </c>
       <c r="H300" t="s">
         <v>1095</v>
@@ -11519,25 +11519,25 @@
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>1075</v>
+        <v>782</v>
       </c>
       <c r="B301" t="s">
-        <v>1076</v>
+        <v>783</v>
       </c>
       <c r="C301" t="s">
-        <v>1077</v>
+        <v>784</v>
       </c>
       <c r="D301">
         <v>66</v>
       </c>
       <c r="E301" t="s">
-        <v>1084</v>
+        <v>791</v>
       </c>
       <c r="F301" t="s">
-        <v>1084</v>
+        <v>791</v>
       </c>
       <c r="G301" t="s">
-        <v>1085</v>
+        <v>792</v>
       </c>
       <c r="H301" t="s">
         <v>1095</v>
@@ -11545,25 +11545,25 @@
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>1075</v>
+        <v>782</v>
       </c>
       <c r="B302" t="s">
-        <v>1076</v>
+        <v>783</v>
       </c>
       <c r="C302" t="s">
-        <v>1077</v>
+        <v>784</v>
       </c>
       <c r="D302">
         <v>55</v>
       </c>
       <c r="E302" t="s">
-        <v>1086</v>
+        <v>793</v>
       </c>
       <c r="F302" t="s">
-        <v>1086</v>
+        <v>793</v>
       </c>
       <c r="G302" t="s">
-        <v>1087</v>
+        <v>794</v>
       </c>
       <c r="H302" t="s">
         <v>1096</v>
@@ -11571,25 +11571,25 @@
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>1075</v>
+        <v>782</v>
       </c>
       <c r="B303" t="s">
-        <v>1076</v>
+        <v>783</v>
       </c>
       <c r="C303" t="s">
-        <v>1077</v>
+        <v>784</v>
       </c>
       <c r="D303">
         <v>55</v>
       </c>
       <c r="E303" t="s">
-        <v>1088</v>
+        <v>795</v>
       </c>
       <c r="F303" t="s">
-        <v>1088</v>
+        <v>795</v>
       </c>
       <c r="G303" t="s">
-        <v>1089</v>
+        <v>796</v>
       </c>
       <c r="H303" t="s">
         <v>1096</v>
@@ -11597,25 +11597,25 @@
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>1075</v>
+        <v>782</v>
       </c>
       <c r="B304" t="s">
-        <v>1076</v>
+        <v>783</v>
       </c>
       <c r="C304" t="s">
-        <v>1077</v>
+        <v>784</v>
       </c>
       <c r="D304">
         <v>55</v>
       </c>
       <c r="E304" t="s">
-        <v>1090</v>
+        <v>797</v>
       </c>
       <c r="F304" t="s">
-        <v>1090</v>
+        <v>797</v>
       </c>
       <c r="G304" t="s">
-        <v>1091</v>
+        <v>798</v>
       </c>
       <c r="H304" t="s">
         <v>1096</v>

--- a/data/Articoli.xlsx
+++ b/data/Articoli.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Estrazione_DB_CAD\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2990E4-FBA2-471D-995F-91B367928B5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE016C6-C3E4-4008-8E30-7A88B29F7884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6670C9F1-34F6-47C3-9A3D-147FE61E4AEA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="732">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="744">
   <si>
     <t>SISTEMA</t>
   </si>
@@ -65,9 +65,6 @@
     <t>AP</t>
   </si>
   <si>
-    <t>ND</t>
-  </si>
-  <si>
     <t>P</t>
   </si>
   <si>
@@ -1829,18 +1826,6 @@
     <t>5RAHAAML</t>
   </si>
   <si>
-    <t>5RAHAPJBA0GPG</t>
-  </si>
-  <si>
-    <t>5RAHAPJBB0GPG</t>
-  </si>
-  <si>
-    <t>5RAHAPJSA0GPG</t>
-  </si>
-  <si>
-    <t>5RAHAPJSB0GPG</t>
-  </si>
-  <si>
     <t>5RAHBAML</t>
   </si>
   <si>
@@ -1946,12 +1931,6 @@
     <t>Parete RP singolo vetro 55 - JB: verticale porta lato cerniera con K279</t>
   </si>
   <si>
-    <t>5RAVPJBCQ0</t>
-  </si>
-  <si>
-    <t>Parete RP singolo vetro 55 - JB: verticale porta lato cerniera con Q prof</t>
-  </si>
-  <si>
     <t>5RAVPJFBKA</t>
   </si>
   <si>
@@ -2093,24 +2072,6 @@
     <t>5RBHAEML</t>
   </si>
   <si>
-    <t>5RBHAPJBA0GPG</t>
-  </si>
-  <si>
-    <t>5RBHAPJBB0GPG</t>
-  </si>
-  <si>
-    <t>5RBHAPJFA0GPG</t>
-  </si>
-  <si>
-    <t>5RBHAPJFB0GPG</t>
-  </si>
-  <si>
-    <t>5RBHAPJFC0GPG</t>
-  </si>
-  <si>
-    <t>5RBHAPJOE0GPG</t>
-  </si>
-  <si>
     <t>5RBHBBML</t>
   </si>
   <si>
@@ -2132,24 +2093,6 @@
     <t>5RCHABML</t>
   </si>
   <si>
-    <t>5RCHAPJBA0GPG</t>
-  </si>
-  <si>
-    <t>5RCHAPJBB0GPG</t>
-  </si>
-  <si>
-    <t>5RCHAPJFA0GPG</t>
-  </si>
-  <si>
-    <t>5RCHAPJFB0GPG</t>
-  </si>
-  <si>
-    <t>5RCHAPJSA0GPG</t>
-  </si>
-  <si>
-    <t>5RCHAPJSB0GPG</t>
-  </si>
-  <si>
     <t>5RCHBAML</t>
   </si>
   <si>
@@ -2195,9 +2138,6 @@
     <t>images/5RAVPJBCKC.png</t>
   </si>
   <si>
-    <t>images/5RAVPJBCQ0.png</t>
-  </si>
-  <si>
     <t>images/5RAVPJFBKA.png</t>
   </si>
   <si>
@@ -2232,6 +2172,102 @@
   </si>
   <si>
     <t>images/5RAVPJSPKC.png</t>
+  </si>
+  <si>
+    <t>5R0PJSD0</t>
+  </si>
+  <si>
+    <t>5R0PJSD00</t>
+  </si>
+  <si>
+    <t>Parete RP - JSD: porta scorrevole vetrata a doppia anta</t>
+  </si>
+  <si>
+    <t>5R0PJSDA</t>
+  </si>
+  <si>
+    <t>5R0PJSDA0</t>
+  </si>
+  <si>
+    <t>Parete RP - JSD: porta scorrevole vetrata a doppia anta angolare</t>
+  </si>
+  <si>
+    <t>5RAHAPJBA000</t>
+  </si>
+  <si>
+    <t>5RAHAPJBB000</t>
+  </si>
+  <si>
+    <t>5RAHAPJSA000</t>
+  </si>
+  <si>
+    <t>5RAHAPJSB000</t>
+  </si>
+  <si>
+    <t>5RBHAPJBA000</t>
+  </si>
+  <si>
+    <t>5RBHAPJBB000</t>
+  </si>
+  <si>
+    <t>5RBHAPJFA000</t>
+  </si>
+  <si>
+    <t>5RBHAPJFB000</t>
+  </si>
+  <si>
+    <t>5RBHAPJFC000</t>
+  </si>
+  <si>
+    <t>5RBHAPJOE000</t>
+  </si>
+  <si>
+    <t>5RCHAPJBA000</t>
+  </si>
+  <si>
+    <t>5RCHAPJBB000</t>
+  </si>
+  <si>
+    <t>5RCHAPJFA000</t>
+  </si>
+  <si>
+    <t>5RCHAPJFB000</t>
+  </si>
+  <si>
+    <t>5RCHAPJSA000</t>
+  </si>
+  <si>
+    <t>5RCHAPJSB000</t>
+  </si>
+  <si>
+    <t>5RCTRA</t>
+  </si>
+  <si>
+    <t>5RCTRAML</t>
+  </si>
+  <si>
+    <t>Parete RP doppio vetro 55_55 - TR: tracciamento altezza 65mm</t>
+  </si>
+  <si>
+    <t>5RCTRB</t>
+  </si>
+  <si>
+    <t>5RCTRBML</t>
+  </si>
+  <si>
+    <t>Parete RP doppio vetro 55_55 - TR: tracciamento altezza 100mm</t>
+  </si>
+  <si>
+    <t>images/5R0PJSD0.png</t>
+  </si>
+  <si>
+    <t>images/5R0PJSDA.png</t>
+  </si>
+  <si>
+    <t>images/5RCTRA.png</t>
+  </si>
+  <si>
+    <t>images/5RCTRB.png</t>
   </si>
 </sst>
 </file>
@@ -2603,11 +2639,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64EB9B43-EC38-40E6-B077-6084574AF46A}">
-  <dimension ref="A1:H182"/>
+  <dimension ref="A1:H185"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2624,7 +2660,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2650,634 +2686,634 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>21</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>22</v>
       </c>
-      <c r="G2" t="s">
-        <v>23</v>
-      </c>
       <c r="H2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
         <v>19</v>
       </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
         <v>24</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>25</v>
       </c>
-      <c r="G3" t="s">
-        <v>26</v>
-      </c>
       <c r="H3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
         <v>27</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>28</v>
       </c>
-      <c r="G4" t="s">
-        <v>29</v>
-      </c>
       <c r="H4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" t="s">
         <v>30</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>31</v>
       </c>
-      <c r="G5" t="s">
-        <v>32</v>
-      </c>
       <c r="H5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
         <v>19</v>
       </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
         <v>33</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>34</v>
       </c>
-      <c r="G6" t="s">
-        <v>35</v>
-      </c>
       <c r="H6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" t="s">
         <v>36</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>37</v>
       </c>
-      <c r="G7" t="s">
-        <v>38</v>
-      </c>
       <c r="H7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>397</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" t="s">
         <v>398</v>
       </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="G8" t="s">
         <v>39</v>
       </c>
-      <c r="F8" t="s">
-        <v>399</v>
-      </c>
-      <c r="G8" t="s">
-        <v>40</v>
-      </c>
       <c r="H8" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" t="s">
         <v>41</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>42</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>43</v>
       </c>
-      <c r="G9" t="s">
-        <v>44</v>
-      </c>
       <c r="H9" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
         <v>45</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>46</v>
       </c>
-      <c r="G10" t="s">
-        <v>47</v>
-      </c>
       <c r="H10" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" t="s">
         <v>48</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>49</v>
       </c>
-      <c r="G11" t="s">
-        <v>50</v>
-      </c>
       <c r="H11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" t="s">
         <v>51</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>52</v>
       </c>
-      <c r="G12" t="s">
-        <v>53</v>
-      </c>
       <c r="H12" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" t="s">
         <v>54</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
+        <v>399</v>
+      </c>
+      <c r="G13" t="s">
         <v>55</v>
       </c>
-      <c r="F13" t="s">
-        <v>400</v>
-      </c>
-      <c r="G13" t="s">
-        <v>56</v>
-      </c>
       <c r="H13" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" t="s">
+        <v>400</v>
+      </c>
+      <c r="F14" t="s">
         <v>57</v>
       </c>
-      <c r="E14" t="s">
-        <v>401</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>58</v>
       </c>
-      <c r="G14" t="s">
-        <v>59</v>
-      </c>
       <c r="H14" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" t="s">
         <v>60</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>61</v>
       </c>
-      <c r="G15" t="s">
-        <v>62</v>
-      </c>
       <c r="H15" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" t="s">
         <v>63</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>64</v>
       </c>
-      <c r="G16" t="s">
-        <v>65</v>
-      </c>
       <c r="H16" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="E17" t="s">
-        <v>67</v>
+        <v>712</v>
       </c>
       <c r="F17" t="s">
-        <v>594</v>
+        <v>713</v>
       </c>
       <c r="G17" t="s">
-        <v>68</v>
+        <v>714</v>
       </c>
       <c r="H17" t="s">
-        <v>467</v>
+        <v>740</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="E18" t="s">
-        <v>595</v>
+        <v>715</v>
       </c>
       <c r="F18" t="s">
-        <v>578</v>
+        <v>716</v>
       </c>
       <c r="G18" t="s">
-        <v>70</v>
+        <v>717</v>
       </c>
       <c r="H18" t="s">
-        <v>709</v>
+        <v>741</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>579</v>
+        <v>66</v>
       </c>
       <c r="F19" t="s">
-        <v>580</v>
+        <v>593</v>
       </c>
       <c r="G19" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="H19" t="s">
-        <v>592</v>
+        <v>466</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E20" t="s">
-        <v>581</v>
+        <v>594</v>
       </c>
       <c r="F20" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="G20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H20" t="s">
-        <v>593</v>
+        <v>690</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="E21" t="s">
-        <v>74</v>
+        <v>578</v>
       </c>
       <c r="F21" t="s">
-        <v>402</v>
+        <v>579</v>
       </c>
       <c r="G21" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H21" t="s">
-        <v>468</v>
+        <v>591</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="E22" t="s">
-        <v>76</v>
+        <v>580</v>
       </c>
       <c r="F22" t="s">
-        <v>77</v>
+        <v>581</v>
       </c>
       <c r="G22" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="H22" t="s">
-        <v>469</v>
+        <v>592</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B23" t="s">
-        <v>135</v>
+        <v>18</v>
       </c>
       <c r="C23" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D23" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="E23" t="s">
-        <v>136</v>
+        <v>73</v>
       </c>
       <c r="F23" t="s">
-        <v>596</v>
+        <v>401</v>
       </c>
       <c r="G23" t="s">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="H23" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B24" t="s">
-        <v>135</v>
+        <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="E24" t="s">
-        <v>138</v>
+        <v>75</v>
       </c>
       <c r="F24" t="s">
-        <v>597</v>
+        <v>76</v>
       </c>
       <c r="G24" t="s">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="H24" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C25" t="s">
         <v>7</v>
       </c>
       <c r="D25" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F25" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="G25" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H25" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C26" t="s">
         <v>7</v>
@@ -3286,24 +3322,24 @@
         <v>8</v>
       </c>
       <c r="E26" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F26" t="s">
-        <v>599</v>
+        <v>718</v>
       </c>
       <c r="G26" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="H26" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C27" t="s">
         <v>7</v>
@@ -3312,1402 +3348,1402 @@
         <v>8</v>
       </c>
       <c r="E27" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F27" t="s">
-        <v>600</v>
+        <v>719</v>
       </c>
       <c r="G27" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="H27" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C28" t="s">
         <v>7</v>
       </c>
       <c r="D28" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E28" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F28" t="s">
-        <v>601</v>
+        <v>720</v>
       </c>
       <c r="G28" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="H28" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B29" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C29" t="s">
         <v>7</v>
       </c>
       <c r="D29" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E29" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F29" t="s">
-        <v>602</v>
+        <v>721</v>
       </c>
       <c r="G29" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="H29" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C30" t="s">
         <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="E30" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F30" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="G30" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="H30" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B31" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C31" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="D31" t="s">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="E31" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F31" t="s">
-        <v>154</v>
+        <v>597</v>
       </c>
       <c r="G31" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="H31" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C32" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="D32" t="s">
-        <v>152</v>
+        <v>79</v>
       </c>
       <c r="E32" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F32" t="s">
-        <v>157</v>
+        <v>598</v>
       </c>
       <c r="G32" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="H32" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B33" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C33" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="D33" t="s">
-        <v>12</v>
+        <v>151</v>
       </c>
       <c r="E33" t="s">
-        <v>604</v>
+        <v>152</v>
       </c>
       <c r="F33" t="s">
-        <v>605</v>
+        <v>153</v>
       </c>
       <c r="G33" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="H33" t="s">
-        <v>710</v>
+        <v>477</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C34" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="D34" t="s">
-        <v>13</v>
+        <v>151</v>
       </c>
       <c r="E34" t="s">
-        <v>606</v>
+        <v>155</v>
       </c>
       <c r="F34" t="s">
-        <v>607</v>
+        <v>156</v>
       </c>
       <c r="G34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H34" t="s">
-        <v>711</v>
+        <v>478</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C35" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>161</v>
+        <v>599</v>
       </c>
       <c r="F35" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="G35" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H35" t="s">
-        <v>480</v>
+        <v>691</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B36" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C36" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E36" t="s">
-        <v>163</v>
+        <v>601</v>
       </c>
       <c r="F36" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="G36" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="H36" t="s">
-        <v>481</v>
+        <v>692</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B37" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" t="s">
         <v>15</v>
       </c>
-      <c r="D37" t="s">
-        <v>81</v>
-      </c>
       <c r="E37" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F37" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="G37" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="H37" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B38" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D38" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="E38" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F38" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="G38" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="H38" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B39" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D39" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E39" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="F39" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="G39" t="s">
-        <v>613</v>
+        <v>165</v>
       </c>
       <c r="H39" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B40" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D40" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="E40" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F40" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="G40" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H40" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B41" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="E41" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F41" t="s">
-        <v>583</v>
+        <v>607</v>
       </c>
       <c r="G41" t="s">
-        <v>173</v>
+        <v>608</v>
       </c>
       <c r="H41" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B42" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E42" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="F42" t="s">
-        <v>584</v>
+        <v>609</v>
       </c>
       <c r="G42" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="H42" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E43" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F43" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="G43" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="H43" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B44" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E44" t="s">
-        <v>615</v>
+        <v>173</v>
       </c>
       <c r="F44" t="s">
-        <v>616</v>
+        <v>583</v>
       </c>
       <c r="G44" t="s">
-        <v>617</v>
+        <v>174</v>
       </c>
       <c r="H44" t="s">
-        <v>712</v>
+        <v>486</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B45" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E45" t="s">
-        <v>618</v>
+        <v>175</v>
       </c>
       <c r="F45" t="s">
-        <v>619</v>
+        <v>584</v>
       </c>
       <c r="G45" t="s">
-        <v>620</v>
+        <v>176</v>
       </c>
       <c r="H45" t="s">
-        <v>713</v>
+        <v>487</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B46" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C46" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E46" t="s">
-        <v>621</v>
+        <v>610</v>
       </c>
       <c r="F46" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="G46" t="s">
-        <v>623</v>
+        <v>612</v>
       </c>
       <c r="H46" t="s">
-        <v>714</v>
+        <v>693</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B47" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C47" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E47" t="s">
-        <v>624</v>
+        <v>613</v>
       </c>
       <c r="F47" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="G47" t="s">
-        <v>626</v>
+        <v>615</v>
       </c>
       <c r="H47" t="s">
-        <v>715</v>
+        <v>694</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E48" t="s">
-        <v>178</v>
+        <v>616</v>
       </c>
       <c r="F48" t="s">
-        <v>586</v>
+        <v>617</v>
       </c>
       <c r="G48" t="s">
-        <v>179</v>
+        <v>618</v>
       </c>
       <c r="H48" t="s">
-        <v>489</v>
+        <v>695</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B49" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C49" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E49" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="F49" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="G49" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="H49" t="s">
-        <v>716</v>
+        <v>696</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B50" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E50" t="s">
-        <v>630</v>
+        <v>177</v>
       </c>
       <c r="F50" t="s">
-        <v>631</v>
+        <v>585</v>
       </c>
       <c r="G50" t="s">
-        <v>632</v>
+        <v>178</v>
       </c>
       <c r="H50" t="s">
-        <v>717</v>
+        <v>488</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B51" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E51" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="F51" t="s">
-        <v>634</v>
+        <v>623</v>
       </c>
       <c r="G51" t="s">
-        <v>635</v>
+        <v>624</v>
       </c>
       <c r="H51" t="s">
-        <v>718</v>
+        <v>697</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B52" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C52" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E52" t="s">
-        <v>636</v>
+        <v>625</v>
       </c>
       <c r="F52" t="s">
-        <v>9</v>
+        <v>626</v>
       </c>
       <c r="G52" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="H52" t="s">
-        <v>719</v>
+        <v>698</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B53" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C53" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E53" t="s">
-        <v>180</v>
+        <v>628</v>
       </c>
       <c r="F53" t="s">
-        <v>587</v>
+        <v>629</v>
       </c>
       <c r="G53" t="s">
-        <v>181</v>
+        <v>630</v>
       </c>
       <c r="H53" t="s">
-        <v>490</v>
+        <v>699</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B54" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C54" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E54" t="s">
-        <v>638</v>
+        <v>179</v>
       </c>
       <c r="F54" t="s">
-        <v>639</v>
+        <v>586</v>
       </c>
       <c r="G54" t="s">
-        <v>640</v>
+        <v>180</v>
       </c>
       <c r="H54" t="s">
-        <v>720</v>
+        <v>489</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B55" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C55" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E55" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="F55" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="G55" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="H55" t="s">
-        <v>721</v>
+        <v>700</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B56" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C56" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E56" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="F56" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="G56" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
       <c r="H56" t="s">
-        <v>722</v>
+        <v>701</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B57" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C57" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E57" t="s">
-        <v>182</v>
+        <v>637</v>
       </c>
       <c r="F57" t="s">
-        <v>588</v>
+        <v>638</v>
       </c>
       <c r="G57" t="s">
-        <v>183</v>
+        <v>639</v>
       </c>
       <c r="H57" t="s">
-        <v>491</v>
+        <v>702</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B58" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C58" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E58" t="s">
-        <v>647</v>
+        <v>181</v>
       </c>
       <c r="F58" t="s">
-        <v>648</v>
+        <v>587</v>
       </c>
       <c r="G58" t="s">
-        <v>649</v>
+        <v>182</v>
       </c>
       <c r="H58" t="s">
-        <v>723</v>
+        <v>490</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B59" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C59" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E59" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="F59" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="G59" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="H59" t="s">
-        <v>724</v>
+        <v>703</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B60" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C60" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E60" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="F60" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="G60" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="H60" t="s">
-        <v>725</v>
+        <v>704</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B61" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C61" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E61" t="s">
-        <v>184</v>
+        <v>646</v>
       </c>
       <c r="F61" t="s">
-        <v>589</v>
+        <v>647</v>
       </c>
       <c r="G61" t="s">
-        <v>185</v>
+        <v>648</v>
       </c>
       <c r="H61" t="s">
-        <v>492</v>
+        <v>705</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B62" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C62" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E62" t="s">
-        <v>656</v>
+        <v>183</v>
       </c>
       <c r="F62" t="s">
-        <v>657</v>
+        <v>588</v>
       </c>
       <c r="G62" t="s">
-        <v>658</v>
+        <v>184</v>
       </c>
       <c r="H62" t="s">
-        <v>726</v>
+        <v>491</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B63" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C63" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E63" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
       <c r="F63" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="G63" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="H63" t="s">
-        <v>727</v>
+        <v>706</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B64" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C64" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E64" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
       <c r="F64" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
       <c r="G64" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="H64" t="s">
-        <v>728</v>
+        <v>707</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B65" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C65" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E65" t="s">
-        <v>186</v>
+        <v>655</v>
       </c>
       <c r="F65" t="s">
-        <v>590</v>
+        <v>656</v>
       </c>
       <c r="G65" t="s">
-        <v>187</v>
+        <v>657</v>
       </c>
       <c r="H65" t="s">
-        <v>493</v>
+        <v>708</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B66" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C66" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E66" t="s">
-        <v>665</v>
+        <v>185</v>
       </c>
       <c r="F66" t="s">
-        <v>666</v>
+        <v>589</v>
       </c>
       <c r="G66" t="s">
-        <v>667</v>
+        <v>186</v>
       </c>
       <c r="H66" t="s">
-        <v>729</v>
+        <v>492</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B67" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C67" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E67" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
       <c r="F67" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="G67" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="H67" t="s">
-        <v>730</v>
+        <v>709</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B68" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C68" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E68" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="F68" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
       <c r="G68" t="s">
-        <v>673</v>
+        <v>663</v>
       </c>
       <c r="H68" t="s">
-        <v>731</v>
+        <v>710</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B69" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C69" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D69" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="E69" t="s">
-        <v>188</v>
+        <v>664</v>
       </c>
       <c r="F69" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="G69" t="s">
-        <v>189</v>
+        <v>666</v>
       </c>
       <c r="H69" t="s">
-        <v>494</v>
+        <v>711</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B70" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C70" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D70" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E70" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F70" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="G70" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H70" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B71" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C71" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D71" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E71" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F71" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="G71" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H71" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B72" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C72" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D72" t="s">
-        <v>152</v>
+        <v>72</v>
       </c>
       <c r="E72" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F72" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="G72" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H72" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B73" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C73" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D73" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E73" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F73" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="G73" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H73" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B74" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C74" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D74" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E74" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F74" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="G74" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H74" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B75" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C75" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D75" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E75" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F75" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="G75" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H75" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B76" t="s">
-        <v>202</v>
+        <v>134</v>
       </c>
       <c r="C76" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D76" t="s">
-        <v>12</v>
+        <v>151</v>
       </c>
       <c r="E76" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F76" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="G76" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H76" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B77" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C77" t="s">
         <v>7</v>
       </c>
       <c r="D77" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F77" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="G77" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H77" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B78" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C78" t="s">
         <v>7</v>
       </c>
       <c r="D78" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F78" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="G78" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H78" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B79" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C79" t="s">
         <v>7</v>
       </c>
       <c r="D79" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F79" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="G79" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H79" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B80" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C80" t="s">
         <v>7</v>
       </c>
       <c r="D80" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F80" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="G80" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H80" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B81" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C81" t="s">
         <v>7</v>
@@ -4716,24 +4752,24 @@
         <v>8</v>
       </c>
       <c r="E81" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F81" t="s">
-        <v>686</v>
+        <v>722</v>
       </c>
       <c r="G81" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H81" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B82" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C82" t="s">
         <v>7</v>
@@ -4742,24 +4778,24 @@
         <v>8</v>
       </c>
       <c r="E82" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F82" t="s">
-        <v>687</v>
+        <v>723</v>
       </c>
       <c r="G82" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H82" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B83" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C83" t="s">
         <v>7</v>
@@ -4768,24 +4804,24 @@
         <v>8</v>
       </c>
       <c r="E83" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F83" t="s">
-        <v>688</v>
+        <v>724</v>
       </c>
       <c r="G83" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H83" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B84" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C84" t="s">
         <v>7</v>
@@ -4794,24 +4830,24 @@
         <v>8</v>
       </c>
       <c r="E84" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F84" t="s">
-        <v>689</v>
+        <v>725</v>
       </c>
       <c r="G84" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H84" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B85" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C85" t="s">
         <v>7</v>
@@ -4820,24 +4856,24 @@
         <v>8</v>
       </c>
       <c r="E85" t="s">
-        <v>403</v>
+        <v>218</v>
       </c>
       <c r="F85" t="s">
-        <v>690</v>
+        <v>726</v>
       </c>
       <c r="G85" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="H85" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B86" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C86" t="s">
         <v>7</v>
@@ -4846,24 +4882,24 @@
         <v>8</v>
       </c>
       <c r="E86" t="s">
-        <v>221</v>
+        <v>402</v>
       </c>
       <c r="F86" t="s">
-        <v>222</v>
+        <v>727</v>
       </c>
       <c r="G86" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="H86" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B87" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C87" t="s">
         <v>7</v>
@@ -4872,24 +4908,24 @@
         <v>8</v>
       </c>
       <c r="E87" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F87" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G87" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="H87" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B88" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C88" t="s">
         <v>7</v>
@@ -4898,856 +4934,856 @@
         <v>8</v>
       </c>
       <c r="E88" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F88" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G88" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="H88" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B89" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C89" t="s">
         <v>7</v>
       </c>
       <c r="D89" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E89" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F89" t="s">
-        <v>691</v>
+        <v>227</v>
       </c>
       <c r="G89" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="H89" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B90" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C90" t="s">
         <v>7</v>
       </c>
       <c r="D90" t="s">
-        <v>233</v>
+        <v>12</v>
       </c>
       <c r="E90" t="s">
-        <v>404</v>
+        <v>230</v>
       </c>
       <c r="F90" t="s">
-        <v>405</v>
+        <v>678</v>
       </c>
       <c r="G90" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H90" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B91" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C91" t="s">
         <v>7</v>
       </c>
       <c r="D91" t="s">
-        <v>80</v>
+        <v>232</v>
       </c>
       <c r="E91" t="s">
-        <v>235</v>
+        <v>403</v>
       </c>
       <c r="F91" t="s">
-        <v>692</v>
+        <v>404</v>
       </c>
       <c r="G91" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H91" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B92" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C92" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D92" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="E92" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F92" t="s">
-        <v>693</v>
+        <v>679</v>
       </c>
       <c r="G92" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H92" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B93" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C93" t="s">
+        <v>10</v>
+      </c>
+      <c r="D93" t="s">
         <v>11</v>
       </c>
-      <c r="D93" t="s">
-        <v>13</v>
-      </c>
       <c r="E93" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F93" t="s">
-        <v>694</v>
+        <v>680</v>
       </c>
       <c r="G93" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H93" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B94" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C94" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E94" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F94" t="s">
-        <v>695</v>
+        <v>681</v>
       </c>
       <c r="G94" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H94" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B95" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C95" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E95" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F95" t="s">
-        <v>244</v>
+        <v>682</v>
       </c>
       <c r="G95" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="H95" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B96" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C96" t="s">
+        <v>14</v>
+      </c>
+      <c r="D96" t="s">
         <v>15</v>
       </c>
-      <c r="D96" t="s">
-        <v>16</v>
-      </c>
       <c r="E96" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F96" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G96" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H96" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B97" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C97" t="s">
+        <v>14</v>
+      </c>
+      <c r="D97" t="s">
         <v>15</v>
       </c>
-      <c r="D97" t="s">
-        <v>16</v>
-      </c>
       <c r="E97" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F97" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G97" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="H97" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B98" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C98" t="s">
+        <v>14</v>
+      </c>
+      <c r="D98" t="s">
         <v>15</v>
       </c>
-      <c r="D98" t="s">
-        <v>17</v>
-      </c>
       <c r="E98" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F98" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="G98" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H98" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B99" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C99" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D99" t="s">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="E99" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F99" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G99" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="H99" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B100" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C100" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D100" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E100" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F100" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G100" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H100" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B101" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C101" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D101" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="E101" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F101" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G101" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H101" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B102" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C102" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D102" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E102" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F102" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="G102" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="H102" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B103" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C103" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E103" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F103" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G103" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="H103" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B104" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C104" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E104" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F104" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="G104" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="H104" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B105" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C105" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E105" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F105" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G105" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="H105" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B106" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C106" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E106" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F106" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G106" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="H106" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B107" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C107" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E107" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F107" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G107" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="H107" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B108" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C108" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E108" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F108" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="G108" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="H108" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B109" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C109" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E109" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F109" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G109" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H109" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B110" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C110" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E110" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="F110" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="G110" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="H110" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B111" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C111" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E111" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F111" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G111" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H111" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B112" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C112" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E112" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="F112" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="G112" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="H112" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B113" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C113" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D113" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="E113" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F113" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G113" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="H113" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B114" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C114" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D114" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E114" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F114" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="G114" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H114" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B115" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C115" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D115" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E115" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F115" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G115" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="H115" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B116" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C116" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D116" t="s">
-        <v>152</v>
+        <v>72</v>
       </c>
       <c r="E116" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="F116" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="G116" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="H116" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B117" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C117" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D117" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E117" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F117" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G117" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H117" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B118" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="C118" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D118" t="s">
-        <v>12</v>
+        <v>151</v>
       </c>
       <c r="E118" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F118" t="s">
-        <v>696</v>
+        <v>309</v>
       </c>
       <c r="G118" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="H118" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B119" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C119" t="s">
         <v>7</v>
       </c>
       <c r="D119" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F119" t="s">
-        <v>697</v>
+        <v>683</v>
       </c>
       <c r="G119" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H119" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B120" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C120" t="s">
         <v>7</v>
       </c>
       <c r="D120" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F120" t="s">
-        <v>698</v>
+        <v>684</v>
       </c>
       <c r="G120" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H120" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B121" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C121" t="s">
         <v>7</v>
@@ -5756,24 +5792,24 @@
         <v>8</v>
       </c>
       <c r="E121" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F121" t="s">
-        <v>699</v>
+        <v>728</v>
       </c>
       <c r="G121" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="H121" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B122" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C122" t="s">
         <v>7</v>
@@ -5782,24 +5818,24 @@
         <v>8</v>
       </c>
       <c r="E122" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F122" t="s">
-        <v>700</v>
+        <v>729</v>
       </c>
       <c r="G122" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="H122" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B123" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C123" t="s">
         <v>7</v>
@@ -5808,24 +5844,24 @@
         <v>8</v>
       </c>
       <c r="E123" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F123" t="s">
-        <v>701</v>
+        <v>730</v>
       </c>
       <c r="G123" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="H123" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B124" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C124" t="s">
         <v>7</v>
@@ -5834,24 +5870,24 @@
         <v>8</v>
       </c>
       <c r="E124" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F124" t="s">
-        <v>702</v>
+        <v>731</v>
       </c>
       <c r="G124" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="H124" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B125" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C125" t="s">
         <v>7</v>
@@ -5860,1498 +5896,1576 @@
         <v>8</v>
       </c>
       <c r="E125" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F125" t="s">
-        <v>703</v>
+        <v>732</v>
       </c>
       <c r="G125" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="H125" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B126" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C126" t="s">
         <v>7</v>
       </c>
       <c r="D126" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E126" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F126" t="s">
-        <v>704</v>
+        <v>733</v>
       </c>
       <c r="G126" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="H126" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B127" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C127" t="s">
         <v>7</v>
       </c>
       <c r="D127" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="E127" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F127" t="s">
-        <v>705</v>
+        <v>685</v>
       </c>
       <c r="G127" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="H127" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B128" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C128" t="s">
         <v>7</v>
       </c>
       <c r="D128" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E128" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F128" t="s">
-        <v>706</v>
+        <v>686</v>
       </c>
       <c r="G128" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="H128" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B129" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C129" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D129" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="E129" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F129" t="s">
-        <v>336</v>
+        <v>687</v>
       </c>
       <c r="G129" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="H129" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B130" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C130" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>338</v>
+        <v>734</v>
       </c>
       <c r="F130" t="s">
-        <v>406</v>
+        <v>735</v>
       </c>
       <c r="G130" t="s">
-        <v>339</v>
+        <v>736</v>
       </c>
       <c r="H130" t="s">
-        <v>555</v>
+        <v>742</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B131" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C131" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="E131" t="s">
-        <v>340</v>
+        <v>737</v>
       </c>
       <c r="F131" t="s">
-        <v>407</v>
+        <v>738</v>
       </c>
       <c r="G131" t="s">
-        <v>341</v>
+        <v>739</v>
       </c>
       <c r="H131" t="s">
-        <v>556</v>
+        <v>743</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B132" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C132" t="s">
+        <v>14</v>
+      </c>
+      <c r="D132" t="s">
         <v>15</v>
       </c>
-      <c r="D132" t="s">
-        <v>81</v>
-      </c>
       <c r="E132" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="F132" t="s">
-        <v>408</v>
+        <v>335</v>
       </c>
       <c r="G132" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="H132" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B133" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C133" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D133" t="s">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="E133" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="F133" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="G133" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="H133" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B134" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C134" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D134" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="E134" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="F134" t="s">
-        <v>347</v>
+        <v>406</v>
       </c>
       <c r="G134" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="H134" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B135" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C135" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="E135" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="F135" t="s">
-        <v>350</v>
+        <v>407</v>
       </c>
       <c r="G135" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="H135" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B136" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C136" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="E136" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="F136" t="s">
-        <v>353</v>
+        <v>408</v>
       </c>
       <c r="G136" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="H136" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B137" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C137" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E137" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="F137" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="G137" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="H137" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B138" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C138" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E138" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="F138" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="G138" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="H138" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B139" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C139" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E139" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="F139" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="G139" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="H139" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B140" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C140" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E140" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="F140" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="G140" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="H140" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B141" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C141" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D141" t="s">
-        <v>367</v>
+        <v>9</v>
       </c>
       <c r="E141" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="F141" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="G141" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="H141" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B142" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C142" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D142" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="E142" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="F142" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="G142" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="H142" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B143" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C143" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D143" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="E143" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="F143" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="G143" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="H143" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B144" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C144" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D144" t="s">
-        <v>73</v>
+        <v>366</v>
       </c>
       <c r="E144" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="F144" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="G144" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="H144" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B145" t="s">
-        <v>380</v>
+        <v>311</v>
       </c>
       <c r="C145" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D145" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="E145" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="F145" t="s">
-        <v>707</v>
+        <v>371</v>
       </c>
       <c r="G145" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="H145" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B146" t="s">
-        <v>380</v>
+        <v>311</v>
       </c>
       <c r="C146" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D146" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="E146" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="F146" t="s">
-        <v>708</v>
+        <v>374</v>
       </c>
       <c r="G146" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="H146" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B147" t="s">
-        <v>380</v>
+        <v>311</v>
       </c>
       <c r="C147" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D147" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="E147" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="F147" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="G147" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="H147" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B148" t="s">
+        <v>379</v>
+      </c>
+      <c r="C148" t="s">
+        <v>7</v>
+      </c>
+      <c r="D148" t="s">
+        <v>11</v>
+      </c>
+      <c r="E148" t="s">
         <v>380</v>
       </c>
-      <c r="C148" t="s">
-        <v>15</v>
-      </c>
-      <c r="D148" t="s">
-        <v>16</v>
-      </c>
-      <c r="E148" t="s">
-        <v>388</v>
-      </c>
       <c r="F148" t="s">
-        <v>389</v>
+        <v>688</v>
       </c>
       <c r="G148" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="H148" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B149" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C149" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D149" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E149" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="F149" t="s">
-        <v>392</v>
+        <v>689</v>
       </c>
       <c r="G149" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="H149" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B150" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C150" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>152</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="F150" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="G150" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="H150" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="B151" t="s">
-        <v>411</v>
+        <v>379</v>
       </c>
       <c r="C151" t="s">
-        <v>412</v>
-      </c>
-      <c r="D151">
-        <v>66</v>
+        <v>14</v>
+      </c>
+      <c r="D151" t="s">
+        <v>15</v>
       </c>
       <c r="E151" t="s">
-        <v>419</v>
+        <v>387</v>
       </c>
       <c r="F151" t="s">
-        <v>419</v>
+        <v>388</v>
       </c>
       <c r="G151" t="s">
-        <v>420</v>
+        <v>389</v>
       </c>
       <c r="H151" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="B152" t="s">
-        <v>411</v>
+        <v>379</v>
       </c>
       <c r="C152" t="s">
-        <v>412</v>
-      </c>
-      <c r="D152">
-        <v>66</v>
+        <v>14</v>
+      </c>
+      <c r="D152" t="s">
+        <v>17</v>
       </c>
       <c r="E152" t="s">
-        <v>415</v>
+        <v>390</v>
       </c>
       <c r="F152" t="s">
-        <v>415</v>
+        <v>391</v>
       </c>
       <c r="G152" t="s">
-        <v>416</v>
+        <v>392</v>
       </c>
       <c r="H152" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="B153" t="s">
-        <v>411</v>
+        <v>379</v>
       </c>
       <c r="C153" t="s">
-        <v>412</v>
-      </c>
-      <c r="D153">
-        <v>66</v>
+        <v>14</v>
+      </c>
+      <c r="D153" t="s">
+        <v>151</v>
       </c>
       <c r="E153" t="s">
-        <v>417</v>
+        <v>393</v>
       </c>
       <c r="F153" t="s">
-        <v>417</v>
+        <v>394</v>
       </c>
       <c r="G153" t="s">
-        <v>418</v>
+        <v>395</v>
       </c>
       <c r="H153" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
+        <v>409</v>
+      </c>
+      <c r="B154" t="s">
         <v>410</v>
       </c>
-      <c r="B154" t="s">
+      <c r="C154" t="s">
         <v>411</v>
-      </c>
-      <c r="C154" t="s">
-        <v>412</v>
       </c>
       <c r="D154">
         <v>66</v>
       </c>
       <c r="E154" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="F154" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="G154" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="H154" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
+        <v>409</v>
+      </c>
+      <c r="B155" t="s">
         <v>410</v>
       </c>
-      <c r="B155" t="s">
+      <c r="C155" t="s">
         <v>411</v>
       </c>
-      <c r="C155" t="s">
-        <v>412</v>
-      </c>
       <c r="D155">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="E155" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="F155" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="G155" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="H155" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
+        <v>409</v>
+      </c>
+      <c r="B156" t="s">
         <v>410</v>
       </c>
-      <c r="B156" t="s">
+      <c r="C156" t="s">
         <v>411</v>
       </c>
-      <c r="C156" t="s">
-        <v>412</v>
-      </c>
       <c r="D156">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="E156" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="F156" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="G156" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="H156" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
+        <v>409</v>
+      </c>
+      <c r="B157" t="s">
         <v>410</v>
       </c>
-      <c r="B157" t="s">
+      <c r="C157" t="s">
         <v>411</v>
       </c>
-      <c r="C157" t="s">
+      <c r="D157">
+        <v>66</v>
+      </c>
+      <c r="E157" t="s">
         <v>412</v>
       </c>
-      <c r="D157">
-        <v>55</v>
-      </c>
-      <c r="E157" t="s">
-        <v>421</v>
-      </c>
       <c r="F157" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="G157" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="H157" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>591</v>
+        <v>409</v>
       </c>
       <c r="B158" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C158" t="s">
-        <v>82</v>
-      </c>
-      <c r="D158" t="s">
-        <v>83</v>
+        <v>411</v>
+      </c>
+      <c r="D158">
+        <v>55</v>
       </c>
       <c r="E158" t="s">
-        <v>84</v>
+        <v>424</v>
       </c>
       <c r="F158" t="s">
-        <v>84</v>
+        <v>424</v>
       </c>
       <c r="G158" t="s">
-        <v>85</v>
+        <v>425</v>
       </c>
       <c r="H158" t="s">
-        <v>427</v>
+        <v>576</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>591</v>
+        <v>409</v>
       </c>
       <c r="B159" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C159" t="s">
-        <v>82</v>
-      </c>
-      <c r="D159" t="s">
-        <v>86</v>
+        <v>411</v>
+      </c>
+      <c r="D159">
+        <v>55</v>
       </c>
       <c r="E159" t="s">
-        <v>87</v>
+        <v>422</v>
       </c>
       <c r="F159" t="s">
-        <v>87</v>
+        <v>422</v>
       </c>
       <c r="G159" t="s">
-        <v>88</v>
+        <v>423</v>
       </c>
       <c r="H159" t="s">
-        <v>428</v>
+        <v>576</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>591</v>
+        <v>409</v>
       </c>
       <c r="B160" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C160" t="s">
-        <v>82</v>
-      </c>
-      <c r="D160" t="s">
-        <v>86</v>
+        <v>411</v>
+      </c>
+      <c r="D160">
+        <v>55</v>
       </c>
       <c r="E160" t="s">
-        <v>89</v>
+        <v>420</v>
       </c>
       <c r="F160" t="s">
-        <v>89</v>
+        <v>420</v>
       </c>
       <c r="G160" t="s">
-        <v>88</v>
+        <v>421</v>
       </c>
       <c r="H160" t="s">
-        <v>429</v>
+        <v>576</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B161" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C161" t="s">
+        <v>81</v>
+      </c>
+      <c r="D161" t="s">
         <v>82</v>
       </c>
-      <c r="D161" t="s">
-        <v>86</v>
-      </c>
       <c r="E161" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F161" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G161" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="H161" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B162" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C162" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D162" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E162" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F162" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G162" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="H162" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B163" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C163" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D163" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E163" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F163" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="G163" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="H163" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B164" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C164" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D164" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E164" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="F164" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="G164" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="H164" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B165" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C165" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D165" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E165" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F165" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="G165" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="H165" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B166" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C166" t="s">
+        <v>94</v>
+      </c>
+      <c r="D166" t="s">
+        <v>82</v>
+      </c>
+      <c r="E166" t="s">
         <v>95</v>
       </c>
-      <c r="D166" t="s">
-        <v>86</v>
-      </c>
-      <c r="E166" t="s">
-        <v>102</v>
-      </c>
       <c r="F166" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="G166" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="H166" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B167" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C167" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D167" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E167" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F167" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="G167" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="H167" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B168" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C168" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D168" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E168" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F168" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="G168" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="H168" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B169" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C169" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="D169" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E169" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F169" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="G169" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="H169" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B170" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C170" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="D170" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E170" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F170" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="G170" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="H170" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B171" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C171" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="D171" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E171" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F171" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G171" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H171" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B172" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C172" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D172" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E172" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F172" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G172" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="H172" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B173" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C173" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D173" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E173" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F173" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G173" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="H173" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B174" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C174" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D174" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E174" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F174" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G174" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="H174" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B175" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C175" t="s">
+        <v>112</v>
+      </c>
+      <c r="D175" t="s">
+        <v>82</v>
+      </c>
+      <c r="E175" t="s">
         <v>113</v>
       </c>
-      <c r="D175" t="s">
-        <v>92</v>
-      </c>
-      <c r="E175" t="s">
-        <v>118</v>
-      </c>
       <c r="F175" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="G175" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="H175" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B176" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C176" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D176" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E176" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F176" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="G176" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="H176" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B177" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C177" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D177" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E177" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="F177" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="G177" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H177" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B178" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C178" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D178" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E178" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F178" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="G178" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="H178" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B179" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C179" t="s">
+        <v>119</v>
+      </c>
+      <c r="D179" t="s">
+        <v>82</v>
+      </c>
+      <c r="E179" t="s">
         <v>120</v>
       </c>
-      <c r="D179" t="s">
-        <v>86</v>
-      </c>
-      <c r="E179" t="s">
-        <v>127</v>
-      </c>
       <c r="F179" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="G179" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="H179" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B180" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C180" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D180" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E180" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F180" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="G180" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="H180" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B181" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C181" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D181" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E181" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="F181" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="G181" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="H181" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B182" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C182" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D182" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E182" t="s">
+        <v>126</v>
+      </c>
+      <c r="F182" t="s">
+        <v>126</v>
+      </c>
+      <c r="G182" t="s">
+        <v>127</v>
+      </c>
+      <c r="H182" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>590</v>
+      </c>
+      <c r="B183" t="s">
+        <v>411</v>
+      </c>
+      <c r="C183" t="s">
+        <v>119</v>
+      </c>
+      <c r="D183" t="s">
+        <v>91</v>
+      </c>
+      <c r="E183" t="s">
+        <v>128</v>
+      </c>
+      <c r="F183" t="s">
+        <v>128</v>
+      </c>
+      <c r="G183" t="s">
+        <v>129</v>
+      </c>
+      <c r="H183" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>590</v>
+      </c>
+      <c r="B184" t="s">
+        <v>411</v>
+      </c>
+      <c r="C184" t="s">
+        <v>119</v>
+      </c>
+      <c r="D184" t="s">
+        <v>91</v>
+      </c>
+      <c r="E184" t="s">
+        <v>130</v>
+      </c>
+      <c r="F184" t="s">
+        <v>130</v>
+      </c>
+      <c r="G184" t="s">
+        <v>131</v>
+      </c>
+      <c r="H184" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>590</v>
+      </c>
+      <c r="B185" t="s">
+        <v>411</v>
+      </c>
+      <c r="C185" t="s">
+        <v>119</v>
+      </c>
+      <c r="D185" t="s">
+        <v>91</v>
+      </c>
+      <c r="E185" t="s">
+        <v>132</v>
+      </c>
+      <c r="F185" t="s">
+        <v>132</v>
+      </c>
+      <c r="G185" t="s">
         <v>133</v>
       </c>
-      <c r="F182" t="s">
-        <v>133</v>
-      </c>
-      <c r="G182" t="s">
-        <v>134</v>
-      </c>
-      <c r="H182" t="s">
-        <v>451</v>
+      <c r="H185" t="s">
+        <v>450</v>
       </c>
     </row>
   </sheetData>

--- a/data/Articoli.xlsx
+++ b/data/Articoli.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Estrazione_DB_CAD\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE016C6-C3E4-4008-8E30-7A88B29F7884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B75037-8D58-494E-ADE8-B2D3E345435F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6670C9F1-34F6-47C3-9A3D-147FE61E4AEA}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="2" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Foglio1!$A$1:$H$185</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1817,36 +1820,15 @@
     <t>images/5R0VPR.png</t>
   </si>
   <si>
-    <t>5R0SAAML</t>
-  </si>
-  <si>
     <t>5R0VPQ0</t>
   </si>
   <si>
-    <t>5RAHAAML</t>
-  </si>
-  <si>
-    <t>5RAHBAML</t>
-  </si>
-  <si>
-    <t>5RAHBBML</t>
-  </si>
-  <si>
-    <t>5RAHIAML</t>
-  </si>
-  <si>
     <t>5RATRA</t>
   </si>
   <si>
-    <t>5RATRAML</t>
-  </si>
-  <si>
     <t>5RATRB</t>
   </si>
   <si>
-    <t>5RATRBML</t>
-  </si>
-  <si>
     <t>5RAVM1A000</t>
   </si>
   <si>
@@ -2060,24 +2042,6 @@
     <t>5RAVWCD000</t>
   </si>
   <si>
-    <t>5RBHAAML</t>
-  </si>
-  <si>
-    <t>5RBHABML</t>
-  </si>
-  <si>
-    <t>5RBHACML</t>
-  </si>
-  <si>
-    <t>5RBHAEML</t>
-  </si>
-  <si>
-    <t>5RBHBBML</t>
-  </si>
-  <si>
-    <t>5RBHIAML</t>
-  </si>
-  <si>
     <t>5RBTRA00CC</t>
   </si>
   <si>
@@ -2087,27 +2051,6 @@
     <t>5RBTRC00CC</t>
   </si>
   <si>
-    <t>5RCHAAML</t>
-  </si>
-  <si>
-    <t>5RCHABML</t>
-  </si>
-  <si>
-    <t>5RCHBAML</t>
-  </si>
-  <si>
-    <t>5RCHIAML</t>
-  </si>
-  <si>
-    <t>5RCHIBML</t>
-  </si>
-  <si>
-    <t>5RDHAAML</t>
-  </si>
-  <si>
-    <t>5RDHBAML</t>
-  </si>
-  <si>
     <t>images/5R0VPQ0.png</t>
   </si>
   <si>
@@ -2243,18 +2186,12 @@
     <t>5RCTRA</t>
   </si>
   <si>
-    <t>5RCTRAML</t>
-  </si>
-  <si>
     <t>Parete RP doppio vetro 55_55 - TR: tracciamento altezza 65mm</t>
   </si>
   <si>
     <t>5RCTRB</t>
   </si>
   <si>
-    <t>5RCTRBML</t>
-  </si>
-  <si>
     <t>Parete RP doppio vetro 55_55 - TR: tracciamento altezza 100mm</t>
   </si>
   <si>
@@ -2268,6 +2205,72 @@
   </si>
   <si>
     <t>images/5RCTRB.png</t>
+  </si>
+  <si>
+    <t>5R0SAA0000</t>
+  </si>
+  <si>
+    <t>5RAHAA0000</t>
+  </si>
+  <si>
+    <t>5RAHBA0000</t>
+  </si>
+  <si>
+    <t>5RAHBB0000</t>
+  </si>
+  <si>
+    <t>5RAHIA0000</t>
+  </si>
+  <si>
+    <t>5RATRA0000</t>
+  </si>
+  <si>
+    <t>5RATRB0000</t>
+  </si>
+  <si>
+    <t>5RBHAA0000</t>
+  </si>
+  <si>
+    <t>5RBHAB0000</t>
+  </si>
+  <si>
+    <t>5RBHAC0000</t>
+  </si>
+  <si>
+    <t>5RBHAE0000</t>
+  </si>
+  <si>
+    <t>5RBHBB0000</t>
+  </si>
+  <si>
+    <t>5RBHIA0000</t>
+  </si>
+  <si>
+    <t>5RCHAA0000</t>
+  </si>
+  <si>
+    <t>5RCHAB0000</t>
+  </si>
+  <si>
+    <t>5RCHBA0000</t>
+  </si>
+  <si>
+    <t>5RCHIA0000</t>
+  </si>
+  <si>
+    <t>5RCHIB0000</t>
+  </si>
+  <si>
+    <t>5RCTRA0000</t>
+  </si>
+  <si>
+    <t>5RCTRB0000</t>
+  </si>
+  <si>
+    <t>5RDHAA0000</t>
+  </si>
+  <si>
+    <t>5RDHBA0000</t>
   </si>
 </sst>
 </file>
@@ -2642,8 +2645,8 @@
   <dimension ref="A1:H185"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N107" sqref="N106:N107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3088,16 +3091,16 @@
         <v>56</v>
       </c>
       <c r="E17" t="s">
-        <v>712</v>
+        <v>692</v>
       </c>
       <c r="F17" t="s">
-        <v>713</v>
+        <v>693</v>
       </c>
       <c r="G17" t="s">
-        <v>714</v>
+        <v>694</v>
       </c>
       <c r="H17" t="s">
-        <v>740</v>
+        <v>718</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -3114,16 +3117,16 @@
         <v>56</v>
       </c>
       <c r="E18" t="s">
-        <v>715</v>
+        <v>695</v>
       </c>
       <c r="F18" t="s">
-        <v>716</v>
+        <v>696</v>
       </c>
       <c r="G18" t="s">
-        <v>717</v>
+        <v>697</v>
       </c>
       <c r="H18" t="s">
-        <v>741</v>
+        <v>719</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -3143,7 +3146,7 @@
         <v>66</v>
       </c>
       <c r="F19" t="s">
-        <v>593</v>
+        <v>722</v>
       </c>
       <c r="G19" t="s">
         <v>67</v>
@@ -3166,7 +3169,7 @@
         <v>9</v>
       </c>
       <c r="E20" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F20" t="s">
         <v>577</v>
@@ -3175,7 +3178,7 @@
         <v>69</v>
       </c>
       <c r="H20" t="s">
-        <v>690</v>
+        <v>670</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -3299,7 +3302,7 @@
         <v>135</v>
       </c>
       <c r="F25" t="s">
-        <v>595</v>
+        <v>723</v>
       </c>
       <c r="G25" t="s">
         <v>136</v>
@@ -3325,7 +3328,7 @@
         <v>137</v>
       </c>
       <c r="F26" t="s">
-        <v>718</v>
+        <v>698</v>
       </c>
       <c r="G26" t="s">
         <v>138</v>
@@ -3351,7 +3354,7 @@
         <v>139</v>
       </c>
       <c r="F27" t="s">
-        <v>719</v>
+        <v>699</v>
       </c>
       <c r="G27" t="s">
         <v>140</v>
@@ -3377,7 +3380,7 @@
         <v>141</v>
       </c>
       <c r="F28" t="s">
-        <v>720</v>
+        <v>700</v>
       </c>
       <c r="G28" t="s">
         <v>142</v>
@@ -3403,7 +3406,7 @@
         <v>143</v>
       </c>
       <c r="F29" t="s">
-        <v>721</v>
+        <v>701</v>
       </c>
       <c r="G29" t="s">
         <v>144</v>
@@ -3429,7 +3432,7 @@
         <v>145</v>
       </c>
       <c r="F30" t="s">
-        <v>596</v>
+        <v>724</v>
       </c>
       <c r="G30" t="s">
         <v>146</v>
@@ -3455,7 +3458,7 @@
         <v>147</v>
       </c>
       <c r="F31" t="s">
-        <v>597</v>
+        <v>725</v>
       </c>
       <c r="G31" t="s">
         <v>148</v>
@@ -3481,7 +3484,7 @@
         <v>149</v>
       </c>
       <c r="F32" t="s">
-        <v>598</v>
+        <v>726</v>
       </c>
       <c r="G32" t="s">
         <v>150</v>
@@ -3556,16 +3559,16 @@
         <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="F35" t="s">
-        <v>600</v>
+        <v>727</v>
       </c>
       <c r="G35" t="s">
         <v>158</v>
       </c>
       <c r="H35" t="s">
-        <v>691</v>
+        <v>671</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -3582,16 +3585,16 @@
         <v>12</v>
       </c>
       <c r="E36" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="F36" t="s">
-        <v>602</v>
+        <v>728</v>
       </c>
       <c r="G36" t="s">
         <v>159</v>
       </c>
       <c r="H36" t="s">
-        <v>692</v>
+        <v>672</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -3611,7 +3614,7 @@
         <v>160</v>
       </c>
       <c r="F37" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="G37" t="s">
         <v>161</v>
@@ -3637,7 +3640,7 @@
         <v>162</v>
       </c>
       <c r="F38" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="G38" t="s">
         <v>163</v>
@@ -3663,7 +3666,7 @@
         <v>164</v>
       </c>
       <c r="F39" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="G39" t="s">
         <v>165</v>
@@ -3689,7 +3692,7 @@
         <v>166</v>
       </c>
       <c r="F40" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="G40" t="s">
         <v>167</v>
@@ -3715,10 +3718,10 @@
         <v>168</v>
       </c>
       <c r="F41" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="G41" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="H41" t="s">
         <v>483</v>
@@ -3741,7 +3744,7 @@
         <v>169</v>
       </c>
       <c r="F42" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="G42" t="s">
         <v>170</v>
@@ -3842,16 +3845,16 @@
         <v>9</v>
       </c>
       <c r="E46" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="F46" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="G46" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="H46" t="s">
-        <v>693</v>
+        <v>673</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -3868,16 +3871,16 @@
         <v>9</v>
       </c>
       <c r="E47" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="F47" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="G47" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="H47" t="s">
-        <v>694</v>
+        <v>674</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -3894,16 +3897,16 @@
         <v>9</v>
       </c>
       <c r="E48" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="F48" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="G48" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="H48" t="s">
-        <v>695</v>
+        <v>675</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -3920,16 +3923,16 @@
         <v>9</v>
       </c>
       <c r="E49" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="F49" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="G49" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="H49" t="s">
-        <v>696</v>
+        <v>676</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -3972,16 +3975,16 @@
         <v>9</v>
       </c>
       <c r="E51" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="F51" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="G51" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="H51" t="s">
-        <v>697</v>
+        <v>677</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -3998,16 +4001,16 @@
         <v>9</v>
       </c>
       <c r="E52" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="F52" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="G52" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="H52" t="s">
-        <v>698</v>
+        <v>678</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -4024,16 +4027,16 @@
         <v>9</v>
       </c>
       <c r="E53" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="F53" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="G53" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="H53" t="s">
-        <v>699</v>
+        <v>679</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -4076,16 +4079,16 @@
         <v>9</v>
       </c>
       <c r="E55" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="F55" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="G55" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="H55" t="s">
-        <v>700</v>
+        <v>680</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -4102,16 +4105,16 @@
         <v>9</v>
       </c>
       <c r="E56" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="F56" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="G56" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="H56" t="s">
-        <v>701</v>
+        <v>681</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -4128,16 +4131,16 @@
         <v>9</v>
       </c>
       <c r="E57" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="F57" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="G57" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="H57" t="s">
-        <v>702</v>
+        <v>682</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -4180,16 +4183,16 @@
         <v>9</v>
       </c>
       <c r="E59" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="F59" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="G59" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="H59" t="s">
-        <v>703</v>
+        <v>683</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -4206,16 +4209,16 @@
         <v>9</v>
       </c>
       <c r="E60" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="F60" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="G60" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="H60" t="s">
-        <v>704</v>
+        <v>684</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -4232,16 +4235,16 @@
         <v>9</v>
       </c>
       <c r="E61" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="F61" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="G61" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="H61" t="s">
-        <v>705</v>
+        <v>685</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -4284,16 +4287,16 @@
         <v>9</v>
       </c>
       <c r="E63" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="F63" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="G63" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="H63" t="s">
-        <v>706</v>
+        <v>686</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -4310,16 +4313,16 @@
         <v>9</v>
       </c>
       <c r="E64" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="F64" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="G64" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="H64" t="s">
-        <v>707</v>
+        <v>687</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -4336,16 +4339,16 @@
         <v>9</v>
       </c>
       <c r="E65" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="F65" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="G65" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="H65" t="s">
-        <v>708</v>
+        <v>688</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -4388,16 +4391,16 @@
         <v>9</v>
       </c>
       <c r="E67" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="F67" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="G67" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="H67" t="s">
-        <v>709</v>
+        <v>689</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -4414,16 +4417,16 @@
         <v>9</v>
       </c>
       <c r="E68" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="F68" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="G68" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="H68" t="s">
-        <v>710</v>
+        <v>690</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -4440,16 +4443,16 @@
         <v>9</v>
       </c>
       <c r="E69" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="F69" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="G69" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="H69" t="s">
-        <v>711</v>
+        <v>691</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -4469,7 +4472,7 @@
         <v>187</v>
       </c>
       <c r="F70" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="G70" t="s">
         <v>188</v>
@@ -4495,7 +4498,7 @@
         <v>189</v>
       </c>
       <c r="F71" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="G71" t="s">
         <v>190</v>
@@ -4521,7 +4524,7 @@
         <v>191</v>
       </c>
       <c r="F72" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="G72" t="s">
         <v>192</v>
@@ -4547,7 +4550,7 @@
         <v>193</v>
       </c>
       <c r="F73" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="G73" t="s">
         <v>194</v>
@@ -4573,7 +4576,7 @@
         <v>195</v>
       </c>
       <c r="F74" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="G74" t="s">
         <v>196</v>
@@ -4599,7 +4602,7 @@
         <v>197</v>
       </c>
       <c r="F75" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="G75" t="s">
         <v>198</v>
@@ -4625,7 +4628,7 @@
         <v>199</v>
       </c>
       <c r="F76" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="G76" t="s">
         <v>200</v>
@@ -4651,7 +4654,7 @@
         <v>202</v>
       </c>
       <c r="F77" t="s">
-        <v>674</v>
+        <v>729</v>
       </c>
       <c r="G77" t="s">
         <v>203</v>
@@ -4677,7 +4680,7 @@
         <v>204</v>
       </c>
       <c r="F78" t="s">
-        <v>675</v>
+        <v>730</v>
       </c>
       <c r="G78" t="s">
         <v>205</v>
@@ -4703,7 +4706,7 @@
         <v>206</v>
       </c>
       <c r="F79" t="s">
-        <v>676</v>
+        <v>731</v>
       </c>
       <c r="G79" t="s">
         <v>207</v>
@@ -4729,7 +4732,7 @@
         <v>208</v>
       </c>
       <c r="F80" t="s">
-        <v>677</v>
+        <v>732</v>
       </c>
       <c r="G80" t="s">
         <v>209</v>
@@ -4755,7 +4758,7 @@
         <v>210</v>
       </c>
       <c r="F81" t="s">
-        <v>722</v>
+        <v>702</v>
       </c>
       <c r="G81" t="s">
         <v>211</v>
@@ -4781,7 +4784,7 @@
         <v>212</v>
       </c>
       <c r="F82" t="s">
-        <v>723</v>
+        <v>703</v>
       </c>
       <c r="G82" t="s">
         <v>213</v>
@@ -4807,7 +4810,7 @@
         <v>214</v>
       </c>
       <c r="F83" t="s">
-        <v>724</v>
+        <v>704</v>
       </c>
       <c r="G83" t="s">
         <v>215</v>
@@ -4833,7 +4836,7 @@
         <v>216</v>
       </c>
       <c r="F84" t="s">
-        <v>725</v>
+        <v>705</v>
       </c>
       <c r="G84" t="s">
         <v>217</v>
@@ -4859,7 +4862,7 @@
         <v>218</v>
       </c>
       <c r="F85" t="s">
-        <v>726</v>
+        <v>706</v>
       </c>
       <c r="G85" t="s">
         <v>219</v>
@@ -4885,7 +4888,7 @@
         <v>402</v>
       </c>
       <c r="F86" t="s">
-        <v>727</v>
+        <v>707</v>
       </c>
       <c r="G86" t="s">
         <v>229</v>
@@ -4989,7 +4992,7 @@
         <v>230</v>
       </c>
       <c r="F90" t="s">
-        <v>678</v>
+        <v>733</v>
       </c>
       <c r="G90" t="s">
         <v>231</v>
@@ -5041,7 +5044,7 @@
         <v>234</v>
       </c>
       <c r="F92" t="s">
-        <v>679</v>
+        <v>734</v>
       </c>
       <c r="G92" t="s">
         <v>235</v>
@@ -5067,7 +5070,7 @@
         <v>236</v>
       </c>
       <c r="F93" t="s">
-        <v>680</v>
+        <v>667</v>
       </c>
       <c r="G93" t="s">
         <v>237</v>
@@ -5093,7 +5096,7 @@
         <v>238</v>
       </c>
       <c r="F94" t="s">
-        <v>681</v>
+        <v>668</v>
       </c>
       <c r="G94" t="s">
         <v>239</v>
@@ -5119,7 +5122,7 @@
         <v>240</v>
       </c>
       <c r="F95" t="s">
-        <v>682</v>
+        <v>669</v>
       </c>
       <c r="G95" t="s">
         <v>241</v>
@@ -5743,7 +5746,7 @@
         <v>312</v>
       </c>
       <c r="F119" t="s">
-        <v>683</v>
+        <v>735</v>
       </c>
       <c r="G119" t="s">
         <v>313</v>
@@ -5769,7 +5772,7 @@
         <v>314</v>
       </c>
       <c r="F120" t="s">
-        <v>684</v>
+        <v>736</v>
       </c>
       <c r="G120" t="s">
         <v>315</v>
@@ -5795,7 +5798,7 @@
         <v>316</v>
       </c>
       <c r="F121" t="s">
-        <v>728</v>
+        <v>708</v>
       </c>
       <c r="G121" t="s">
         <v>317</v>
@@ -5821,7 +5824,7 @@
         <v>318</v>
       </c>
       <c r="F122" t="s">
-        <v>729</v>
+        <v>709</v>
       </c>
       <c r="G122" t="s">
         <v>319</v>
@@ -5847,7 +5850,7 @@
         <v>320</v>
       </c>
       <c r="F123" t="s">
-        <v>730</v>
+        <v>710</v>
       </c>
       <c r="G123" t="s">
         <v>321</v>
@@ -5873,7 +5876,7 @@
         <v>322</v>
       </c>
       <c r="F124" t="s">
-        <v>731</v>
+        <v>711</v>
       </c>
       <c r="G124" t="s">
         <v>323</v>
@@ -5899,7 +5902,7 @@
         <v>324</v>
       </c>
       <c r="F125" t="s">
-        <v>732</v>
+        <v>712</v>
       </c>
       <c r="G125" t="s">
         <v>325</v>
@@ -5925,7 +5928,7 @@
         <v>326</v>
       </c>
       <c r="F126" t="s">
-        <v>733</v>
+        <v>713</v>
       </c>
       <c r="G126" t="s">
         <v>327</v>
@@ -5951,7 +5954,7 @@
         <v>328</v>
       </c>
       <c r="F127" t="s">
-        <v>685</v>
+        <v>737</v>
       </c>
       <c r="G127" t="s">
         <v>329</v>
@@ -5977,7 +5980,7 @@
         <v>330</v>
       </c>
       <c r="F128" t="s">
-        <v>686</v>
+        <v>738</v>
       </c>
       <c r="G128" t="s">
         <v>331</v>
@@ -6003,7 +6006,7 @@
         <v>332</v>
       </c>
       <c r="F129" t="s">
-        <v>687</v>
+        <v>739</v>
       </c>
       <c r="G129" t="s">
         <v>333</v>
@@ -6026,16 +6029,16 @@
         <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>734</v>
+        <v>714</v>
       </c>
       <c r="F130" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="G130" t="s">
-        <v>736</v>
+        <v>715</v>
       </c>
       <c r="H130" t="s">
-        <v>742</v>
+        <v>720</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
@@ -6052,16 +6055,16 @@
         <v>12</v>
       </c>
       <c r="E131" t="s">
-        <v>737</v>
+        <v>716</v>
       </c>
       <c r="F131" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="G131" t="s">
-        <v>739</v>
+        <v>717</v>
       </c>
       <c r="H131" t="s">
-        <v>743</v>
+        <v>721</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
@@ -6497,7 +6500,7 @@
         <v>380</v>
       </c>
       <c r="F148" t="s">
-        <v>688</v>
+        <v>742</v>
       </c>
       <c r="G148" t="s">
         <v>381</v>
@@ -6523,7 +6526,7 @@
         <v>382</v>
       </c>
       <c r="F149" t="s">
-        <v>689</v>
+        <v>743</v>
       </c>
       <c r="G149" t="s">
         <v>383</v>
@@ -7469,6 +7472,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H185" xr:uid="{64EB9B43-EC38-40E6-B077-6084574AF46A}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>